--- a/xlsx/古希腊_intext.xlsx
+++ b/xlsx/古希腊_intext.xlsx
@@ -15,2379 +15,2322 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="772">
   <si>
     <t>古希腊</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%8D%AB%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>雅典卫城</t>
+  </si>
+  <si>
+    <t>政策_政策_外交政策_古希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E5%86%9C%E7%A5%9E%E5%BA%99</t>
+  </si>
+  <si>
+    <t>帕特农神庙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%A8%9C</t>
+  </si>
+  <si>
+    <t>雅典娜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%8E%86%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>希腊历史</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Neolithic_Greece</t>
+  </si>
+  <si>
+    <t>en-Neolithic Greece</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>爱琴文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E9%8A%85%E5%99%A8%E6%99%82%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>希腊铜器时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%85%8B%E6%8B%89%E6%B3%BD%E6%96%AF%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>基克拉泽斯文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%AF%BA%E6%96%AF%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>米诺斯文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%94%A1%E5%B0%BC%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>迈锡尼文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E9%BB%91%E6%9A%97%E6%97%B6%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>希腊黑暗时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%A2%A8%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>古风时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E5%B8%8C%E8%87%98%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>古典希腊时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8C%96%E6%99%82%E4%BB%A3%E7%9A%84%E5%B8%8C%E8%87%98</t>
+  </si>
+  <si>
+    <t>希腊化时代的希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%9A%84%E7%BD%97%E9%A9%AC%E6%97%B6%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>希腊的罗马时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>拜占庭帝国</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Byzantine_Greece</t>
+  </si>
+  <si>
+    <t>en-Byzantine Greece</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Frankokratia</t>
+  </si>
+  <si>
+    <t>en-Frankokratia</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ottoman_Greece</t>
+  </si>
+  <si>
+    <t>en-Ottoman Greece</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Stato_da_M%C3%A0r</t>
+  </si>
+  <si>
+    <t>en-Stato da Màr</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3%E5%B8%8C%E8%87%98</t>
+  </si>
+  <si>
+    <t>近代希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%99%AE%E4%B8%81%E4%BF%AE%E6%8B%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>塞普丁修拉共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>希腊独立战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>希腊王国</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Schism</t>
+  </si>
+  <si>
+    <t>en-National Schism</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E7%AC%AC%E4%BA%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>希腊第二共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E6%9C%88%E5%9B%9B%E6%97%A5%E9%AB%94%E5%88%B6</t>
+  </si>
+  <si>
+    <t>八月四日体制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BB%B8%E5%BF%83%E5%9C%8B%E4%BD%94%E9%A0%98%E5%B8%8C%E8%87%98%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>轴心国佔领希腊时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>希腊内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E6%94%BF%E5%BA%9C%E6%99%82%E6%9C%9F</t>
+  </si>
+  <si>
+    <t>希腊军政府时期</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>希腊</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Greek_art</t>
+  </si>
+  <si>
+    <t>en-Greek art</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Constitutional_history_of_Greece</t>
+  </si>
+  <si>
+    <t>en-Constitutional history of Greece</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Economic_history_of_Greece_and_the_Greek_world</t>
+  </si>
+  <si>
+    <t>en-Economic history of Greece and the Greek world</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Military_history_of_Greece</t>
+  </si>
+  <si>
+    <t>en-Military history of Greece</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Names_of_the_Greeks</t>
+  </si>
+  <si>
+    <t>en-Names of the Greeks</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>罗马共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%90%B4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱琴海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>克里特文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%8C%AB%E5%B0%BC%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%88%A9%E4%BA%9A%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>多利亚人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9B%85%E5%85%B8</t>
+  </si>
+  <si>
+    <t>古雅典</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>波希战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BE%85%E5%A5%94%E5%B0%BC%E6%92%92%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>伯罗奔尼撒战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E9%87%8C%E5%85%8B%E5%88%A9%E6%97%B6%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>伯里克利时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93</t>
+  </si>
+  <si>
+    <t>马其顿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B</t>
+  </si>
+  <si>
+    <t>国王</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E5%A4%A7%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>亚历山大大帝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8C%96%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>希腊化文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>地中海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>中亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%97%9D</t>
+  </si>
+  <si>
+    <t>工艺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>罗马帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>西方文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%8C%AB%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>迈锡尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%AB%BE%E6%96%AF%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%89%B9%E5%86%9C%E7%A5%9E%E5%BA%99</t>
+  </si>
+  <si>
+    <t>巴特农神庙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>马其顿帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
+  </si>
+  <si>
+    <t>埃及</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E9%81%94%E7%B1%B3%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>美索不达米亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF</t>
+  </si>
+  <si>
+    <t>波斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
+  </si>
+  <si>
+    <t>古代奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>历史学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E5%A4%A7%E5%B8%9D</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%B8%96%E7%B4%80</t>
+  </si>
+  <si>
+    <t>一世纪</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%96%99</t>
+  </si>
+  <si>
+    <t>史料</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>希罗多德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>修昔底德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E8%AB%BE%E8%8A%AC</t>
+  </si>
+  <si>
+    <t>色诺芬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%91%A9%E8%A5%BF%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>狄摩西尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E6%8B%89%E5%BA%95</t>
+  </si>
+  <si>
+    <t>苏格拉底</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
+  </si>
+  <si>
+    <t>柏拉图</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>亚里士多德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>巴尔干半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%88%A9%E5%AE%89%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>多利安人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%BD%E9%97%A8%E5%86%9C</t>
+  </si>
+  <si>
+    <t>阿伽门农</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%B4%9B%E4%BC%8A%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>特洛伊战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A6%AC%E5%8F%B2%E8%A9%A9</t>
+  </si>
+  <si>
+    <t>荷马史诗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%9A%97%E6%97%B6%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>黑暗时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2_(%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7)</t>
+  </si>
+  <si>
+    <t>历史 (希罗多德)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%90%A8%E5%B0%BC%E4%BA%9A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>保萨尼亚斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E7%9A%84%E7%8B%84%E5%A5%A7%E5%A4%9A%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>西西里的狄奥多罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E7%BD%97%E5%A7%86</t>
+  </si>
+  <si>
+    <t>哲罗姆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%8F%90%E5%86%9C%E7%A5%9E%E5%BA%99</t>
+  </si>
+  <si>
+    <t>帕提农神庙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%9E%E7%B4%B0%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>小亚细亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>印欧人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>爱奥尼亚人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E9%94%A1%E5%B0%BC%E6%96%87%E6%98%8E</t>
+  </si>
+  <si>
+    <t>麦锡尼文明</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC%E5%8F%B2%E8%AF%97</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC%E6%97%B6%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>荷马时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%93%81%E5%99%A8</t>
+  </si>
+  <si>
+    <t>铁器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%93%9C%E5%99%A8</t>
+  </si>
+  <si>
+    <t>青铜器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%85%93%E5%B0%BC%E5%9F%BA%E5%AD%97%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>腓尼基字母</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>奥林匹克运动会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%9A%E7%BB%86%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9D%9E</t>
+  </si>
+  <si>
+    <t>北非</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B7%B4%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>斯巴达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A5%91%E7%BE%8E%E5%B0%BC%E5%BE%B7%E7%8E%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>阿契美尼德王朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%9A%E7%BB%86%E4%BA%9A%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>小亚细亚半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A5%A5%E5%B0%BC%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>伊奥尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%88%A9%E9%83%BD</t>
+  </si>
+  <si>
+    <t>米利都</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%BF%AA%E6%96%AF</t>
+  </si>
+  <si>
+    <t>萨迪斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B5%81%E5%A3%AB%E4%B8%80%E4%B8%96</t>
+  </si>
+  <si>
+    <t>大流士一世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E6%9D%BE%E6%88%98%E5%BD%B9</t>
+  </si>
+  <si>
+    <t>马拉松战役</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E8%A5%BF%E6%96%AF%E4%B8%80%E4%B8%96</t>
+  </si>
+  <si>
+    <t>薛西斯一世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E6%B3%89%E5%85%B3%E6%88%98%E5%BD%B9</t>
+  </si>
+  <si>
+    <t>温泉关战役</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%8B%89%E7%B1%B3%E6%B9%BE%E6%B5%B7%E6%88%98</t>
+  </si>
+  <si>
+    <t>萨拉米湾海战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BD%97%E5%A5%94%E5%B0%BC%E6%92%92%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E9%87%8C%E5%85%8B%E5%88%A9</t>
+  </si>
+  <si>
+    <t>伯里克利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%B4%9B%E5%90%8C%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>提洛同盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BD%97%E5%A5%94%E5%B0%BC%E6%92%92%E5%90%8C%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>伯罗奔尼撒同盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E6%AF%94%E6%96%AF_(%E5%B8%8C%E8%87%98)</t>
+  </si>
+  <si>
+    <t>底比斯 (希腊)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>西西里岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E6%8B%89%E5%8F%A4</t>
+  </si>
+  <si>
+    <t>叙拉古</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%85%93%E5%8A%9B%E4%BA%8C%E4%B8%96</t>
+  </si>
+  <si>
+    <t>腓力二世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%85%93%E5%8A%9B%E4%BA%8C%E4%B8%96_(%E9%A9%AC%E5%85%B6%E9%A1%BF)</t>
+  </si>
+  <si>
+    <t>腓力二世 (马其顿)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E7%BE%85%E5%B0%BC%E4%BA%9E%E6%88%B0%E5%BD%B9</t>
+  </si>
+  <si>
+    <t>喀罗尼亚战役</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E5%B0%BC%E5%BA%AB%E6%96%AF%E6%B2%B3%E6%88%B0%E5%BD%B9</t>
+  </si>
+  <si>
+    <t>格拉尼库斯河战役</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%98%87%E6%96%AF%E6%88%B0%E5%BD%B9</t>
+  </si>
+  <si>
+    <t>伊苏斯战役</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>叙利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B5%81%E5%A3%AB%E4%B8%89%E4%B8%96</t>
+  </si>
+  <si>
+    <t>大流士三世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%BE%8E%E6%8B%89%E6%88%98%E5%BD%B9</t>
+  </si>
+  <si>
+    <t>高加美拉战役</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>巴比伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B2%B3</t>
+  </si>
+  <si>
+    <t>印度河</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%8C%96%E6%97%B6%E4%BB%A3</t>
+  </si>
+  <si>
+    <t>希腊化时代</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E6%9F%AF%E7%8E%8B%E6%9C%9D</t>
+  </si>
+  <si>
+    <t>安提柯王朝</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%90%89%E5%8F%A4%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>塞琉古帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%8B%92%E5%AF%86%E7%8E%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>托勒密王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%9E%8B%E6%B0%A3%E5%80%99</t>
+  </si>
+  <si>
+    <t>地中海型气候</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>爱奥尼亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%BE%97%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>亚得里亚海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E9%81%94%E5%B0%BC%E7%88%BE%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>达达尼尔海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%96%AF%E6%99%AE%E9%AD%AF%E6%96%AF%E6%B5%B7%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>博斯普鲁斯海峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>黑海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>克里特岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>义大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%B3%89%E9%97%9C</t>
+  </si>
+  <si>
+    <t>温泉关</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8F%90%E5%8D%A1</t>
+  </si>
+  <si>
+    <t>阿提卡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%E6%96%AF%E5%9C%B0%E5%B3%BD</t>
+  </si>
+  <si>
+    <t>科林斯地峡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>科林斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BE%85%E5%A5%94%E5%B0%BC%E6%92%92%E5%8D%8A%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>伯罗奔尼撒半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B7%B4%E9%81%94</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B8%8C%E8%85%8A</t>
+  </si>
+  <si>
+    <t>大希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
+  </si>
+  <si>
+    <t>塞浦路斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>马尔马拉海</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9E%E5%8D%8A%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>克里米亚半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%87%8C%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>伊利里亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B3%B6</t>
+  </si>
+  <si>
+    <t>科西嘉岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%8B%89%E5%BA%93%E8%90%A8</t>
+  </si>
+  <si>
+    <t>锡拉库萨</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>那不勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%B3%BD</t>
+  </si>
+  <si>
+    <t>马赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%9D%A6%E5%A0%A1</t>
+  </si>
+  <si>
+    <t>伊斯坦堡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6</t>
+  </si>
+  <si>
+    <t>城邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%BC%8F%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>雅典式民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB</t>
+  </si>
+  <si>
+    <t>直接民主</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%A1%E5%85%8B%E5%9B%9B%E4%B8%96</t>
+  </si>
+  <si>
+    <t>安条克四世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>古希腊教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2%E9%A6%86_(%E5%8F%A4%E5%B8%8C%E8%85%8A)</t>
+  </si>
+  <si>
+    <t>体育馆 (古希腊)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B7%B4%E8%BE%BE%E6%95%99%E8%82%B2</t>
+  </si>
+  <si>
+    <t>斯巴达教育</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%8D%93</t>
+  </si>
+  <si>
+    <t>亚历山卓</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E9%B3%A9%E9%AD%AF</t>
+  </si>
+  <si>
+    <t>伊比鸠鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E5%8F%A4</t>
+  </si>
+  <si>
+    <t>德拉古</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%86%9B%E4%BA%8B</t>
+  </si>
+  <si>
+    <t>古希腊军事</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E5%85%B5</t>
+  </si>
+  <si>
+    <t>步兵</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E9%87%8D%E8%A3%9D%E6%AD%A5%E5%85%B5</t>
+  </si>
+  <si>
+    <t>希腊重装步兵</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%85%B5</t>
+  </si>
+  <si>
+    <t>民兵</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BC%93%E7%AE%AD%E6%89%8B</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AA%91%E5%85%B5</t>
+  </si>
+  <si>
+    <t>骑兵</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%8C%90%E5%BD%A2</t>
+  </si>
+  <si>
+    <t>锥形</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E6%96%B9%E5%BD%A2</t>
+  </si>
+  <si>
+    <t>长方形</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E9%99%A3_(%E8%BB%8D%E4%BA%8B)</t>
+  </si>
+  <si>
+    <t>方阵 (军事)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%BE%E7%89%8C</t>
+  </si>
+  <si>
+    <t>盾牌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E8%A1%9B</t>
+  </si>
+  <si>
+    <t>防卫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A3%AB%E5%85%B5</t>
+  </si>
+  <si>
+    <t>士兵</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A3%85%E5%A4%87</t>
+  </si>
+  <si>
+    <t>装备</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E6%9C%8D</t>
+  </si>
+  <si>
+    <t>制服</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%B6%93%E6%BF%9F</t>
+  </si>
+  <si>
+    <t>古希腊经济</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%BE%B2%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>古希腊农业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%96%87%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>古希腊文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6</t>
+  </si>
+  <si>
+    <t>奴隶制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%BC%A6_(%E7%A5%9E%E8%AF%9D)</t>
+  </si>
+  <si>
+    <t>海伦 (神话)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E9%98%BF%E6%91%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>普里阿摩斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%A9%A9</t>
+  </si>
+  <si>
+    <t>史诗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8%E9%AB%94%E8%A3%81</t>
+  </si>
+  <si>
+    <t>文学体裁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%96%93%E5%82%B3%E8%AA%AA</t>
+  </si>
+  <si>
+    <t>民间传说</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%9B%84</t>
+  </si>
+  <si>
+    <t>英雄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E4%BA%8B%E8%AF%97</t>
+  </si>
+  <si>
+    <t>叙事诗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E4%BA%9A%E7%89%B9</t>
+  </si>
+  <si>
+    <t>伊利亚特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%BE%B7%E8%B5%9B</t>
+  </si>
+  <si>
+    <t>奥德赛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>荷马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E8%A5%BF%E4%BF%84%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>赫西俄德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E8%88%87%E6%99%82%E6%97%A5</t>
+  </si>
+  <si>
+    <t>工作与时日</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%B0%B1</t>
+  </si>
+  <si>
+    <t>神谱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>亚历山大城</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E9%A9%AC%E7%A7%91%E6%96%AF</t>
+  </si>
+  <si>
+    <t>卡利马科斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%B7%E5%B2%9B%E7%9A%84%E9%98%BF%E6%B3%A2%E7%BD%97%E5%B0%BC%E5%A5%A5%E6%96%AF</t>
+  </si>
+  <si>
+    <t>罗德岛的阿波罗尼奥斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%88%B2%E5%8A%87</t>
+  </si>
+  <si>
+    <t>古希腊戏剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%AF%E5%BA%93%E7%BD%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>埃斯库罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%A6%8F%E5%85%8B%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>索福克勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E9%87%8C%E5%BA%87%E5%BE%97%E6%96%AF</t>
+  </si>
+  <si>
+    <t>欧里庇得斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E6%96%AF%E6%89%98%E8%8A%AC</t>
+  </si>
+  <si>
+    <t>阿里斯托芬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8A%92%E6%83%85%E8%AF%97</t>
+  </si>
+  <si>
+    <t>抒情诗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%8B%89</t>
+  </si>
+  <si>
+    <t>里拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%B4%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>琴歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E6%AD%8C</t>
+  </si>
+  <si>
+    <t>牧歌</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E5%8A%AA%E6%96%AF</t>
+  </si>
+  <si>
+    <t>卡利努斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%8E%AB%E5%B0%BC%E5%BE%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>西莫尼德斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A2%AD%E4%BC%A6</t>
+  </si>
+  <si>
+    <t>梭伦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E7%A6%8F</t>
+  </si>
+  <si>
+    <t>萨福</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8D%A1%E5%9F%83%E4%B9%8C%E6%96%AF</t>
+  </si>
+  <si>
+    <t>阿尔卡埃乌斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%82%A3%E5%85%8B%E9%87%8C%E7%BF%81</t>
+  </si>
+  <si>
+    <t>阿那克里翁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%BE%BE</t>
+  </si>
+  <si>
+    <t>品达</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%8B%89%E6%89%98%E6%96%AF%E7%89%B9%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>埃拉托斯特尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%89%98%E6%96%AF</t>
+  </si>
+  <si>
+    <t>阿拉托斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BF%92%E5%A5%A5%E5%85%8B%E9%87%8C%E6%89%98%E6%96%AF</t>
+  </si>
+  <si>
+    <t>忒奥克里托斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%8F%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>古希腊史学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BD%97%E5%A5%94%E5%B0%BC%E6%92%92%E6%88%98%E4%BA%89%E5%8F%B2</t>
+  </si>
+  <si>
+    <t>伯罗奔尼撒战争史</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E8%AF%BA%E8%8A%AC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E5%BE%81%E8%AE%B0</t>
+  </si>
+  <si>
+    <t>长征记</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%87%8C%E6%AF%94%E9%98%BF</t>
+  </si>
+  <si>
+    <t>波里比阿</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%93%B2%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>古希腊哲学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%88%A9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>泰利斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%AF%E5%A3%AB%E5%AD%B8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>辩士学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>亚里斯多德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E9%B3%A9%E9%AD%AF%E5%AD%B8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>伊比鸠鲁学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E4%BA%9E%E5%AD%B8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>斯多亚学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8A%AC%E5%84%92%E5%AD%B8%E6%B4%BE</t>
+  </si>
+  <si>
+    <t>犬儒学派</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%99%E6%96%AF</t>
+  </si>
+  <si>
+    <t>宙斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%AE%97%E6%95%99</t>
+  </si>
+  <si>
+    <t>古希腊宗教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>奥林匹亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%A5%BF%E6%96%AF</t>
+  </si>
+  <si>
+    <t>艾西斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%85%E6%95%99</t>
+  </si>
+  <si>
+    <t>祅教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
+  </si>
+  <si>
+    <t>犹太教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E8%89%BA%E6%9C%AF</t>
+  </si>
+  <si>
+    <t>古希腊艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E8%97%9D%E8%A1%93</t>
+  </si>
+  <si>
+    <t>西方艺术</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%86%99%E5%AE%9E</t>
+  </si>
+  <si>
+    <t>写实</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%89%B9%E9%B2%81%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>伊特鲁利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E5%B8%9D%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>亚历山大帝国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%85%8B%E5%B0%94%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>温克尔曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%BB%BA%E7%AF%89</t>
+  </si>
+  <si>
+    <t>古希腊建筑</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F</t>
+  </si>
+  <si>
+    <t>古希腊神庙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>古希腊神庙列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%AB%8B%E5%85%8B%E6%9F%B1%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>多立克柱式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E%E6%9F%B1%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>爱奥尼亚柱式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%E6%96%AF%E6%9F%B1%E5%BC%8F</t>
+  </si>
+  <si>
+    <t>科林斯柱式</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E8%BE%B2%E7%A5%9E%E5%BB%9F</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8A%A0%E9%A9%AC%E7%A5%AD%E5%9D%9B</t>
+  </si>
+  <si>
+    <t>帕加马祭坛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E9%9B%95%E5%88%BB</t>
+  </si>
+  <si>
+    <t>古希腊雕刻</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E7%8B%84%E4%BA%9A%E6%96%AF</t>
+  </si>
+  <si>
+    <t>菲狄亚斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E9%9A%86</t>
+  </si>
+  <si>
+    <t>米隆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%95%99%E5%85%8B%E5%88%97%E7%89%B9%E6%96%AF</t>
+  </si>
+  <si>
+    <t>波留克列特斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%B4%9B%E7%9A%84%E7%BB%B4%E7%BA%B3%E6%96%AF</t>
+  </si>
+  <si>
+    <t>米洛的维纳斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E8%8E%AB%E7%89%B9%E6%8B%89%E6%96%AF%E7%9A%84%E5%8B%9D%E5%88%A9%E5%A5%B3%E7%A5%9E</t>
+  </si>
+  <si>
+    <t>萨莫特拉斯的胜利女神</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%B9%AA%E7%95%AB</t>
+  </si>
+  <si>
+    <t>古希腊绘画</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E7%A7%91%E6%8A%80</t>
+  </si>
+  <si>
+    <t>古希腊科技</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>天文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B3%A2%E5%85%8B%E6%8B%89%E5%BA%95</t>
+  </si>
+  <si>
+    <t>希波克拉底</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%85%8B%E6%96%AF%E6%9D%AF</t>
+  </si>
+  <si>
+    <t>基里克斯杯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%8D%9A%E7%89%A9%E9%A6%86</t>
+  </si>
+  <si>
+    <t>大英博物馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E9%A5%AE%E9%A3%9F%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>古希腊饮食文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%A5%B4%E9%9A%B6%E5%88%B6%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>古希腊奴隶制度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%B0%91</t>
+  </si>
+  <si>
+    <t>农民</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
+  </si>
+  <si>
+    <t>小麦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84</t>
+  </si>
+  <si>
+    <t>葡萄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96</t>
+  </si>
+  <si>
+    <t>橄榄</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>商人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E5%99%A8</t>
+  </si>
+  <si>
+    <t>陶器</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%85%92</t>
+  </si>
+  <si>
+    <t>酒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%9B%BD%E5%AE%B6%E8%80%83%E5%8F%A4%E5%8D%9A%E7%89%A9%E9%A6%86</t>
+  </si>
+  <si>
+    <t>雅典国家考古博物馆</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
+  </si>
+  <si>
+    <t>奴隶</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
+  </si>
+  <si>
+    <t>意大利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
+  </si>
+  <si>
+    <t>文艺复兴</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%83%A7%E4%BE%A3</t>
+  </si>
+  <si>
+    <t>僧侣</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E6%97%8F</t>
+  </si>
+  <si>
+    <t>贵族</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>诗学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%AF%E8%92%99%E8%BF%90%E5%8A%A8</t>
+  </si>
+  <si>
+    <t>启蒙运动</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%8F</t>
+  </si>
+  <si>
+    <t>圣经</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%BF%90%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>奥运会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%AF%9D</t>
+  </si>
+  <si>
+    <t>神话</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9B%A0%E9%87%8C%E5%B8%8C%C2%B7%E6%96%BD%E9%87%8C%E6%9B%BC</t>
+  </si>
+  <si>
+    <t>海因里希·施里曼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%B4%9B%E4%BC%8A</t>
+  </si>
+  <si>
+    <t>特洛伊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>古希腊语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%93%B2%E5%AD%A6%E5%AE%B6</t>
+  </si>
+  <si>
+    <t>古希腊哲学家</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%B0%E5%AD%A6</t>
+  </si>
+  <si>
+    <t>古希腊数学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%A4%A9%E6%96%87%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>古希腊天文学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E7%A5%9E%E8%AF%9D</t>
+  </si>
+  <si>
+    <t>古希腊神话</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%88%8F%E5%89%A7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%82%B2%E5%89%A7</t>
+  </si>
+  <si>
+    <t>古希腊悲剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%96%9C%E5%89%A7</t>
+  </si>
+  <si>
+    <t>古希腊喜剧</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%8D%AB%E7%94%9F</t>
+  </si>
+  <si>
+    <t>古希腊卫生</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%8E%8E%E5%A3%AB%E6%AF%94%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>威廉·莎士比亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E4%B9%8B%E6%97%85</t>
+  </si>
+  <si>
+    <t>发现之旅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E4%B9%8B%E6%97%85%E5%8F%A2%E6%9B%B8%E6%9B%B8%E7%9B%AE%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>发现之旅丛书书目列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%A0%B1%E6%96%87%E5%8C%96</t>
+  </si>
+  <si>
+    <t>时报文化</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
+  </si>
+  <si>
+    <t>Wayback Machine</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Pierre_L%C3%A9v%C3%AAque</t>
+  </si>
+  <si>
+    <t>en-Pierre Lévêque</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8F%A4%E5%B8%8C%E8%87%98</t>
+  </si>
+  <si>
+    <t>Template talk-古希腊</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E7%8E%8B%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>马其顿王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>爱奥尼亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A5%A5%E5%88%A9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>伊奥利亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%A1%E5%85%8B</t>
+  </si>
+  <si>
+    <t>安条克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E6%B8%AF</t>
+  </si>
+  <si>
+    <t>亚历山大港</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8A%A0%E9%A9%AC</t>
+  </si>
+  <si>
+    <t>帕加马</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%BC%97%E6%89%80</t>
+  </si>
+  <si>
+    <t>以弗所</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD</t>
+  </si>
+  <si>
+    <t>拜占庭</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E6%96%90</t>
+  </si>
+  <si>
+    <t>德尔斐</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%B4%9B%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>提洛岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E4%BA%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%97%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>罗得岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9</t>
+  </si>
+  <si>
+    <t>克里特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BD%97%E5%A5%94%E5%B0%BC%E6%92%92</t>
+  </si>
+  <si>
+    <t>伯罗奔尼撒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%BA%87%E9%B2%81%E6%96%AF</t>
+  </si>
+  <si>
+    <t>伊庇鲁斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>赛普勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%83%BD</t>
+  </si>
+  <si>
+    <t>本都</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%AE%96%E6%B0%91%E5%9C%B0</t>
+  </si>
+  <si>
+    <t>古希腊殖民地</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%B3%95%E5%BE%8B</t>
+  </si>
+  <si>
+    <t>古希腊法律</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%B3%A3%E6%B7%AB%E6%A5%AD</t>
+  </si>
+  <si>
+    <t>古希腊卖淫业</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%8B%B1%E9%9B%84%E5%B4%87%E6%8B%9C</t>
+  </si>
+  <si>
+    <t>希腊英雄崇拜</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%88%98%E4%BA%89</t>
+  </si>
+  <si>
+    <t>古希腊战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%91%A1%E8%90%84%E9%85%92</t>
+  </si>
+  <si>
+    <t>古希腊葡萄酒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%90%8C%E6%80%A7%E6%88%80</t>
+  </si>
+  <si>
+    <t>古希腊同性恋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%B0%91%E5%B9%B4%E6%84%9B</t>
+  </si>
+  <si>
+    <t>古希腊少年爱</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E4%B8%A7%E8%91%AC</t>
+  </si>
+  <si>
+    <t>古希腊丧葬</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%82%A3%E5%85%8B%E8%90%A8%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>阿那克萨哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%82%A3%E5%85%8B%E8%A5%BF%E6%9B%BC%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>阿那克西曼德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%82%A3%E5%85%8B%E8%A5%BF%E7%BE%8E%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>阿那克西美尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E8%A5%BF%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>安提西尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%B0%9F%E5%85%8B%E5%88%A9%E7%89%B9</t>
+  </si>
+  <si>
+    <t>德谟克利特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E8%AF%BA%E6%99%AE%E7%9A%84%E7%AC%AC%E6%AC%A7%E6%A0%B9%E5%B0%BC</t>
+  </si>
+  <si>
+    <t>锡诺普的第欧根尼</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A3%81%E9%B8%A0%E9%B2%81</t>
+  </si>
+  <si>
+    <t>伊壁鸠鲁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%9F%B9%E5%A4%9A%E5%85%8B%E5%8B%92</t>
+  </si>
+  <si>
+    <t>恩培多克勒</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%8B%89%E5%85%8B%E5%88%A9%E7%89%B9</t>
+  </si>
+  <si>
+    <t>赫拉克利特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%9F%BA%E4%BC%AF</t>
+  </si>
+  <si>
+    <t>留基伯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%BE%E5%90%89%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>高尔吉亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%97%A8%E5%B0%BC%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>巴门尼德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BD%97%E6%B3%B0%E6%88%88%E6%8B%89</t>
+  </si>
+  <si>
+    <t>普罗泰戈拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AF%95%E8%BE%BE%E5%93%A5%E6%8B%89%E6%96%AF</t>
+  </si>
+  <si>
+    <t>毕达哥拉斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E6%8B%89%E5%BA%95</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92%E6%96%AF</t>
+  </si>
+  <si>
+    <t>泰勒斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E8%92%82%E6%98%82%E7%9A%84%E8%8A%9D%E8%AF%BA</t>
+  </si>
+  <si>
+    <t>季蒂昂的芝诺</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%B4%A2</t>
+  </si>
+  <si>
+    <t>伊索</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%90%89%E5%96%84</t>
+  </si>
+  <si>
+    <t>琉善</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%8D%97%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>米南德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A1%94%E5%85%8B</t>
+  </si>
+  <si>
+    <t>普鲁塔克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%88%A9%E6%AF%94%E7%83%8F%E6%96%AF</t>
+  </si>
+  <si>
+    <t>波利比乌斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E5%AD%9A</t>
+  </si>
+  <si>
+    <t>莎孚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%A5%A5%E6%A0%BC%E5%B0%BC%E6%96%AF</t>
+  </si>
+  <si>
+    <t>泰奥格尼斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E8%B0%9F%E5%85%8B%E5%8B%92%E7%BF%81</t>
+  </si>
+  <si>
+    <t>提谟克勒翁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%B0%94%E6%B3%B0%E5%A5%A5%E6%96%AF</t>
+  </si>
+  <si>
+    <t>提尔泰奥斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E8%A5%BF%E6%AF%94%E4%BA%9A%E5%BE%B7%E6%96%AF</t>
+  </si>
+  <si>
+    <t>阿尔西比亚德斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%9F%BA%E7%B1%B3%E5%BE%B7</t>
+  </si>
+  <si>
+    <t>阿基米德</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%B8%95%E9%BD%8A%E5%A9%AD</t>
+  </si>
+  <si>
+    <t>阿斯帕齐娅</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%87%A0%E9%87%8C%E5%BE%97</t>
+  </si>
+  <si>
+    <t>欧几里得</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%B8%95%E6%81%B0%E6%96%AF</t>
+  </si>
+  <si>
+    <t>喜帕恰斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A5%A5%E5%B0%BC%E8%BE%BE%E4%B8%80%E4%B8%96</t>
+  </si>
+  <si>
+    <t>列奥尼达一世</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E5%8F%A4%E6%A0%BC%E5%A3%AB</t>
+  </si>
+  <si>
+    <t>来古格士</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E6%89%98%E9%82%A3%E7%9A%84%E7%B1%B3%E7%BD%97</t>
+  </si>
+  <si>
+    <t>克罗托那的米罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8A%B3%E7%8B%84%E4%B9%8C%E6%96%AF%C2%B7%E6%89%98%E5%8B%92%E5%AF%86</t>
+  </si>
+  <si>
+    <t>克劳狄乌斯·托勒密</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%B1%B3%E6%96%AF%E6%89%98%E5%85%8B%E5%88%A9</t>
+  </si>
+  <si>
+    <t>地米斯托克利</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%BE%B7%E5%AB%A9%E7%A5%9E%E5%BB%9F</t>
+  </si>
+  <si>
+    <t>帕德嫩神庙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%80%B3%E5%BF%92%E5%BC%A5%E6%96%AF%E7%A5%9E%E5%BA%99</t>
+  </si>
+  <si>
+    <t>阿耳忒弥斯神庙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E8%A1%9B%E5%9F%8E</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9B%85%E5%85%B8%E9%98%BF%E5%93%A5%E6%8B%89</t>
+  </si>
+  <si>
+    <t>古雅典阿哥拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E%E5%AE%99%E6%96%AF%E7%A5%9E%E5%BB%9F</t>
+  </si>
+  <si>
+    <t>奥林匹亚宙斯神庙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%B7%AE%E6%96%AF%E6%89%98%E6%96%AF%E7%A5%9E%E5%BA%99</t>
+  </si>
+  <si>
+    <t>赫淮斯托斯神庙</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8F%B2%E5%AD%B8</t>
+  </si>
+  <si>
+    <t>希腊史学</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%B8%8C%E8%87%98%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>原始希腊语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%8C%AB%E5%B0%BC%E5%B8%8C%E8%87%98%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>迈锡尼希腊语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8F%90%E5%8D%A1%E5%B8%8C%E8%87%98%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>阿提卡希腊语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E5%B8%8C%E8%87%98%E8%AA%9E</t>
+  </si>
+  <si>
+    <t>通用希腊语</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E5%BD%A2%E6%96%87%E5%AD%97A</t>
+  </si>
+  <si>
+    <t>线形文字A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E5%BD%A2%E6%96%87%E5%AD%97B</t>
+  </si>
+  <si>
+    <t>线形文字B</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E9%9F%B3%E7%AF%80%E6%96%87%E5%AD%97</t>
+  </si>
+  <si>
+    <t>塞浦路斯音节文字</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%AD%97%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>希腊字母</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8D%91%E4%BA%9E%E5%AD%97%E6%AF%8D</t>
+  </si>
+  <si>
+    <t>优卑亚字母</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E6%AC%A7%E6%B4%B2</t>
+  </si>
+  <si>
+    <t>史前欧洲</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
+  </si>
+  <si>
+    <t>中世纪</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%8D%AB%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>雅典卫城</t>
-  </si>
-  <si>
-    <t>政策_政策_政治_古希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E5%86%9C%E7%A5%9E%E5%BA%99</t>
-  </si>
-  <si>
-    <t>帕特农神庙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%A8%9C</t>
-  </si>
-  <si>
-    <t>雅典娜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%8E%86%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>希腊历史</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Neolithic_Greece</t>
-  </si>
-  <si>
-    <t>en-Neolithic Greece</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>爱琴文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E9%8A%85%E5%99%A8%E6%99%82%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>希臘銅器時代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%85%8B%E6%8B%89%E6%B3%BD%E6%96%AF%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>基克拉泽斯文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%AF%BA%E6%96%AF%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>米诺斯文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%94%A1%E5%B0%BC%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>迈锡尼文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E9%BB%91%E6%9A%97%E6%97%B6%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>希腊黑暗时代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%A2%A8%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>古風時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%85%B8%E5%B8%8C%E8%87%98%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>古典希臘時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8C%96%E6%99%82%E4%BB%A3%E7%9A%84%E5%B8%8C%E8%87%98</t>
-  </si>
-  <si>
-    <t>希臘化時代的希臘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%9A%84%E7%BD%97%E9%A9%AC%E6%97%B6%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>希腊的罗马时期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>拜占庭帝国</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Byzantine_Greece</t>
-  </si>
-  <si>
-    <t>en-Byzantine Greece</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Frankokratia</t>
-  </si>
-  <si>
-    <t>en-Frankokratia</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Ottoman_Greece</t>
-  </si>
-  <si>
-    <t>en-Ottoman Greece</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Stato_da_M%C3%A0r</t>
-  </si>
-  <si>
-    <t>en-Stato da Màr</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3%E5%B8%8C%E8%87%98</t>
-  </si>
-  <si>
-    <t>近代希臘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%99%AE%E4%B8%81%E4%BF%AE%E6%8B%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>塞普丁修拉共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%8B%AC%E7%AB%8B%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>希腊独立战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>希腊王国</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/National_Schism</t>
-  </si>
-  <si>
-    <t>en-National Schism</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E7%AC%AC%E4%BA%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>希臘第二共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AB%E6%9C%88%E5%9B%9B%E6%97%A5%E9%AB%94%E5%88%B6</t>
-  </si>
-  <si>
-    <t>八月四日體制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BB%B8%E5%BF%83%E5%9C%8B%E4%BD%94%E9%A0%98%E5%B8%8C%E8%87%98%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>軸心國佔領希臘時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>希腊内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%BB%8D%E6%94%BF%E5%BA%9C%E6%99%82%E6%9C%9F</t>
-  </si>
-  <si>
-    <t>希臘軍政府時期</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>希腊</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Greek_art</t>
-  </si>
-  <si>
-    <t>en-Greek art</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Constitutional_history_of_Greece</t>
-  </si>
-  <si>
-    <t>en-Constitutional history of Greece</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Economic_history_of_Greece_and_the_Greek_world</t>
-  </si>
-  <si>
-    <t>en-Economic history of Greece and the Greek world</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Military_history_of_Greece</t>
-  </si>
-  <si>
-    <t>en-Military history of Greece</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Names_of_the_Greeks</t>
-  </si>
-  <si>
-    <t>en-Names of the Greeks</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>罗马共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%90%B4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>愛琴海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>克里特文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%8C%AB%E5%B0%BC%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>邁錫尼文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%88%A9%E4%BA%9A%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>多利亚人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9B%85%E5%85%B8</t>
-  </si>
-  <si>
-    <t>古雅典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>波希战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B8%8C%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>波希戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BE%85%E5%A5%94%E5%B0%BC%E6%92%92%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>伯羅奔尼撒戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E9%87%8C%E5%85%8B%E5%88%A9%E6%97%B6%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>伯里克利时代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93</t>
-  </si>
-  <si>
-    <t>馬其頓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%8E%8B</t>
-  </si>
-  <si>
-    <t>國王</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E5%A4%A7%E5%B8%9D</t>
-  </si>
-  <si>
-    <t>亚历山大大帝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8C%96%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>希臘化文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>地中海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>中亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>哲學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>科學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E8%97%9D</t>
-  </si>
-  <si>
-    <t>工藝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>罗马帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>西方文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>羅馬帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%8C%AB%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>邁錫尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E8%AB%BE%E6%96%AF%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>米諾斯文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>羅馬共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%89%B9%E5%86%9C%E7%A5%9E%E5%BA%99</t>
-  </si>
-  <si>
-    <t>巴特农神庙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>马其顿帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
-  </si>
-  <si>
-    <t>埃及</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%B4%A2%E4%B8%8D%E9%81%94%E7%B1%B3%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>美索不達米亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF</t>
-  </si>
-  <si>
-    <t>波斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E5%A5%A7%E6%9E%97%E5%8C%B9%E5%85%8B%E9%81%8B%E5%8B%95%E6%9C%83</t>
-  </si>
-  <si>
-    <t>古代奧林匹克運動會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>歷史學家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E5%A4%A7%E5%B8%9D</t>
-  </si>
-  <si>
-    <t>亞歷山大大帝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%B8%96%E7%B4%80</t>
-  </si>
-  <si>
-    <t>一世紀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%96%99</t>
-  </si>
-  <si>
-    <t>史料</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>希羅多德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%AE%E6%98%94%E5%BA%95%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>修昔底德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E8%AB%BE%E8%8A%AC</t>
-  </si>
-  <si>
-    <t>色諾芬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8B%84%E6%91%A9%E8%A5%BF%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>狄摩西尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E6%8B%89%E5%BA%95</t>
-  </si>
-  <si>
-    <t>蘇格拉底</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9C%96</t>
-  </si>
-  <si>
-    <t>柏拉圖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>亞里士多德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%88%BE%E5%B9%B9%E5%8D%8A%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>巴爾幹半島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%88%A9%E5%AE%89%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>多利安人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E4%BC%BD%E9%97%A8%E5%86%9C</t>
-  </si>
-  <si>
-    <t>阿伽门农</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%B4%9B%E4%BC%8A%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>特洛伊戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A6%AC%E5%8F%B2%E8%A9%A9</t>
-  </si>
-  <si>
-    <t>荷馬史詩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%9A%97%E6%97%B6%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>黑暗时代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2_(%E5%B8%8C%E7%BE%85%E5%A4%9A%E5%BE%B7)</t>
-  </si>
-  <si>
-    <t>歷史 (希羅多德)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E8%90%A8%E5%B0%BC%E4%BA%9A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>保萨尼亚斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E7%9A%84%E7%8B%84%E5%A5%A7%E5%A4%9A%E7%BE%85%E6%96%AF</t>
-  </si>
-  <si>
-    <t>西西里的狄奧多羅斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E7%BD%97%E5%A7%86</t>
-  </si>
-  <si>
-    <t>哲罗姆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%8F%90%E5%86%9C%E7%A5%9E%E5%BA%99</t>
-  </si>
-  <si>
-    <t>帕提农神庙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%9E%E7%B4%B0%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>小亞細亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E6%AD%90%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>印歐人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>愛奧尼亞人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E9%94%A1%E5%B0%BC%E6%96%87%E6%98%8E</t>
-  </si>
-  <si>
-    <t>麦锡尼文明</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC%E5%8F%B2%E8%AF%97</t>
-  </si>
-  <si>
-    <t>荷马史诗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC%E6%97%B6%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>荷马时代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%93%81%E5%99%A8</t>
-  </si>
-  <si>
-    <t>铁器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E9%93%9C%E5%99%A8</t>
-  </si>
-  <si>
-    <t>青铜器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%85%93%E5%B0%BC%E5%9F%BA%E5%AD%97%E6%AF%8D</t>
-  </si>
-  <si>
-    <t>腓尼基字母</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%9A%E7%BB%86%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>小亚细亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9D%9E</t>
-  </si>
-  <si>
-    <t>北非</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B7%B4%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>斯巴达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>西亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%A5%91%E7%BE%8E%E5%B0%BC%E5%BE%B7%E7%8E%8B%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>阿契美尼德王朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E4%BA%9A%E7%BB%86%E4%BA%9A%E5%8D%8A%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>小亚细亚半岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A5%A5%E5%B0%BC%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>伊奥尼亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%88%A9%E9%83%BD</t>
-  </si>
-  <si>
-    <t>米利都</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E8%BF%AA%E6%96%AF</t>
-  </si>
-  <si>
-    <t>萨迪斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B5%81%E5%A3%AB%E4%B8%80%E4%B8%96</t>
-  </si>
-  <si>
-    <t>大流士一世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E6%9D%BE%E6%88%98%E5%BD%B9</t>
-  </si>
-  <si>
-    <t>马拉松战役</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E8%A5%BF%E6%96%AF%E4%B8%80%E4%B8%96</t>
-  </si>
-  <si>
-    <t>薛西斯一世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E6%B3%89%E5%85%B3%E6%88%98%E5%BD%B9</t>
-  </si>
-  <si>
-    <t>温泉关战役</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E6%8B%89%E7%B1%B3%E6%B9%BE%E6%B5%B7%E6%88%98</t>
-  </si>
-  <si>
-    <t>萨拉米湾海战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BD%97%E5%A5%94%E5%B0%BC%E6%92%92%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>伯罗奔尼撒战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E9%87%8C%E5%85%8B%E5%88%A9</t>
-  </si>
-  <si>
-    <t>伯里克利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%B4%9B%E5%90%8C%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>提洛同盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BD%97%E5%A5%94%E5%B0%BC%E6%92%92%E5%90%8C%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>伯罗奔尼撒同盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%95%E6%AF%94%E6%96%AF_(%E5%B8%8C%E8%87%98)</t>
-  </si>
-  <si>
-    <t>底比斯 (希臘)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>西西里岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E6%8B%89%E5%8F%A4</t>
-  </si>
-  <si>
-    <t>叙拉古</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%85%93%E5%8A%9B%E4%BA%8C%E4%B8%96</t>
-  </si>
-  <si>
-    <t>腓力二世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%85%93%E5%8A%9B%E4%BA%8C%E4%B8%96_(%E9%A9%AC%E5%85%B6%E9%A1%BF)</t>
-  </si>
-  <si>
-    <t>腓力二世 (马其顿)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%80%E7%BE%85%E5%B0%BC%E4%BA%9E%E6%88%B0%E5%BD%B9</t>
-  </si>
-  <si>
-    <t>喀羅尼亞戰役</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%8B%89%E5%B0%BC%E5%BA%AB%E6%96%AF%E6%B2%B3%E6%88%B0%E5%BD%B9</t>
-  </si>
-  <si>
-    <t>格拉尼庫斯河戰役</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%98%87%E6%96%AF%E6%88%B0%E5%BD%B9</t>
-  </si>
-  <si>
-    <t>伊蘇斯戰役</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>叙利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B5%81%E5%A3%AB%E4%B8%89%E4%B8%96</t>
-  </si>
-  <si>
-    <t>大流士三世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8A%A0%E7%BE%8E%E6%8B%89%E6%88%98%E5%BD%B9</t>
-  </si>
-  <si>
-    <t>高加美拉战役</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%AF%94%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>巴比伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E6%B2%B3</t>
-  </si>
-  <si>
-    <t>印度河</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%8C%96%E6%97%B6%E4%BB%A3</t>
-  </si>
-  <si>
-    <t>希腊化时代</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E6%9F%AF%E7%8E%8B%E6%9C%9D</t>
-  </si>
-  <si>
-    <t>安提柯王朝</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%90%89%E5%8F%A4%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>塞琉古帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%89%98%E5%8B%92%E5%AF%86%E7%8E%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>托勒密王国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E4%B8%AD%E6%B5%B7%E5%9E%8B%E6%B0%A3%E5%80%99</t>
-  </si>
-  <si>
-    <t>地中海型氣候</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>愛奧尼亞海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%BE%97%E9%87%8C%E4%BA%9E%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>亞得里亞海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E9%81%94%E5%B0%BC%E7%88%BE%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>達達尼爾海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E6%96%AF%E6%99%AE%E9%AD%AF%E6%96%AF%E6%B5%B7%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>博斯普魯斯海峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>黑海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>克里特島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>義大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%A5%BF%E9%87%8C%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>西西里島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E6%B3%89%E9%97%9C</t>
-  </si>
-  <si>
-    <t>溫泉關</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8F%90%E5%8D%A1</t>
-  </si>
-  <si>
-    <t>阿提卡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%E6%96%AF%E5%9C%B0%E5%B3%BD</t>
-  </si>
-  <si>
-    <t>科林斯地峽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>科林斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BE%85%E5%A5%94%E5%B0%BC%E6%92%92%E5%8D%8A%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>伯羅奔尼撒半島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B7%B4%E9%81%94</t>
-  </si>
-  <si>
-    <t>斯巴達</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%B8%8C%E8%85%8A</t>
-  </si>
-  <si>
-    <t>大希腊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF</t>
-  </si>
-  <si>
-    <t>塞浦路斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%94%E9%A9%AC%E6%8B%89%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>马尔马拉海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%B1%B3%E4%BA%9E%E5%8D%8A%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>克里米亞半島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%87%8C%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>伊利里亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E8%A5%BF%E5%98%89%E5%B3%B6</t>
-  </si>
-  <si>
-    <t>科西嘉島</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E6%8B%89%E5%BA%93%E8%90%A8</t>
-  </si>
-  <si>
-    <t>锡拉库萨</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E4%B8%8D%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>那不勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%B3%BD</t>
-  </si>
-  <si>
-    <t>馬賽</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%9D%A6%E5%A0%A1</t>
-  </si>
-  <si>
-    <t>伊斯坦堡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%82%A6</t>
-  </si>
-  <si>
-    <t>城邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%BC%8F%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>雅典式民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%8E%A5%E6%B0%91%E4%B8%BB</t>
-  </si>
-  <si>
-    <t>直接民主</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%A1%E5%85%8B%E5%9B%9B%E4%B8%96</t>
-  </si>
-  <si>
-    <t>安条克四世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>古希腊教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%8B%89%E5%9B%BE</t>
-  </si>
-  <si>
-    <t>柏拉图</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%93%E8%82%B2%E9%A6%86_(%E5%8F%A4%E5%B8%8C%E8%85%8A)</t>
-  </si>
-  <si>
-    <t>体育馆 (古希腊)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%B7%B4%E8%BE%BE%E6%95%99%E8%82%B2</t>
-  </si>
-  <si>
-    <t>斯巴达教育</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%8D%93</t>
-  </si>
-  <si>
-    <t>亞歷山卓</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E9%B3%A9%E9%AD%AF</t>
-  </si>
-  <si>
-    <t>伊比鳩魯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%8B%89%E5%8F%A4</t>
-  </si>
-  <si>
-    <t>德拉古</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%86%9B%E4%BA%8B</t>
-  </si>
-  <si>
-    <t>古希腊军事</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AD%A5%E5%85%B5</t>
-  </si>
-  <si>
-    <t>步兵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E9%87%8D%E8%A3%9D%E6%AD%A5%E5%85%B5</t>
-  </si>
-  <si>
-    <t>希臘重裝步兵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%85%B5</t>
-  </si>
-  <si>
-    <t>民兵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%93%E7%AE%AD%E6%89%8B</t>
-  </si>
-  <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AA%91%E5%85%B5</t>
-  </si>
-  <si>
-    <t>骑兵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%8C%90%E5%BD%A2</t>
-  </si>
-  <si>
-    <t>錐形</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E6%96%B9%E5%BD%A2</t>
-  </si>
-  <si>
-    <t>长方形</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B9%E9%99%A3_(%E8%BB%8D%E4%BA%8B)</t>
-  </si>
-  <si>
-    <t>方陣 (軍事)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%BE%E7%89%8C</t>
-  </si>
-  <si>
-    <t>盾牌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E8%A1%9B</t>
-  </si>
-  <si>
-    <t>防衛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A3%AB%E5%85%B5</t>
-  </si>
-  <si>
-    <t>士兵</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A3%85%E5%A4%87</t>
-  </si>
-  <si>
-    <t>装备</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E6%9C%8D</t>
-  </si>
-  <si>
-    <t>制服</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%B6%93%E6%BF%9F</t>
-  </si>
-  <si>
-    <t>古希臘經濟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%BE%B2%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>古希臘農業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%96%87%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>古希腊文学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6</t>
-  </si>
-  <si>
-    <t>奴隶制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E4%BC%A6_(%E7%A5%9E%E8%AF%9D)</t>
-  </si>
-  <si>
-    <t>海伦 (神话)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%87%8C%E9%98%BF%E6%91%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>普里阿摩斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%A9%A9</t>
-  </si>
-  <si>
-    <t>史詩</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%AD%B8%E9%AB%94%E8%A3%81</t>
-  </si>
-  <si>
-    <t>文學體裁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E9%96%93%E5%82%B3%E8%AA%AA</t>
-  </si>
-  <si>
-    <t>民間傳說</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E9%9B%84</t>
-  </si>
-  <si>
-    <t>英雄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E4%BA%8B%E8%AF%97</t>
-  </si>
-  <si>
-    <t>叙事诗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E4%BA%9A%E7%89%B9</t>
-  </si>
-  <si>
-    <t>伊利亚特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E5%BE%B7%E8%B5%9B</t>
-  </si>
-  <si>
-    <t>奥德赛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>荷马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E8%A5%BF%E4%BF%84%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>赫西俄德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E8%88%87%E6%99%82%E6%97%A5</t>
-  </si>
-  <si>
-    <t>工作與時日</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%B0%B1</t>
-  </si>
-  <si>
-    <t>神谱</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>亞歷山大城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E9%A9%AC%E7%A7%91%E6%96%AF</t>
-  </si>
-  <si>
-    <t>卡利马科斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%B7%E5%B2%9B%E7%9A%84%E9%98%BF%E6%B3%A2%E7%BD%97%E5%B0%BC%E5%A5%A5%E6%96%AF</t>
-  </si>
-  <si>
-    <t>罗德岛的阿波罗尼奥斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%88%B2%E5%8A%87</t>
-  </si>
-  <si>
-    <t>古希臘戲劇</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%96%AF%E5%BA%93%E7%BD%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>埃斯库罗斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E7%A6%8F%E5%85%8B%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>索福克勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E9%87%8C%E5%BA%87%E5%BE%97%E6%96%AF</t>
-  </si>
-  <si>
-    <t>欧里庇得斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%87%8C%E6%96%AF%E6%89%98%E8%8A%AC</t>
-  </si>
-  <si>
-    <t>阿里斯托芬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8A%92%E6%83%85%E8%AF%97</t>
-  </si>
-  <si>
-    <t>抒情诗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E6%8B%89</t>
-  </si>
-  <si>
-    <t>里拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%B4%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>琴歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%A7%E6%AD%8C</t>
-  </si>
-  <si>
-    <t>牧歌</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%88%A9%E5%8A%AA%E6%96%AF</t>
-  </si>
-  <si>
-    <t>卡利努斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%8E%AB%E5%B0%BC%E5%BE%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>西莫尼德斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A2%AD%E4%BC%A6</t>
-  </si>
-  <si>
-    <t>梭伦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A8%E7%A6%8F</t>
-  </si>
-  <si>
-    <t>萨福</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8D%A1%E5%9F%83%E4%B9%8C%E6%96%AF</t>
-  </si>
-  <si>
-    <t>阿尔卡埃乌斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%82%A3%E5%85%8B%E9%87%8C%E7%BF%81</t>
-  </si>
-  <si>
-    <t>阿那克里翁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%BE%BE</t>
-  </si>
-  <si>
-    <t>品达</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%8B%89%E6%89%98%E6%96%AF%E7%89%B9%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>埃拉托斯特尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E6%89%98%E6%96%AF</t>
-  </si>
-  <si>
-    <t>阿拉托斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BF%92%E5%A5%A5%E5%85%8B%E9%87%8C%E6%89%98%E6%96%AF</t>
-  </si>
-  <si>
-    <t>忒奥克里托斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%8F%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>古希臘史學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BD%97%E5%A5%94%E5%B0%BC%E6%92%92%E6%88%98%E4%BA%89%E5%8F%B2</t>
-  </si>
-  <si>
-    <t>伯罗奔尼撒战争史</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%B2%E8%AF%BA%E8%8A%AC</t>
-  </si>
-  <si>
-    <t>色诺芬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%BF%E5%BE%81%E8%AE%B0</t>
-  </si>
-  <si>
-    <t>长征记</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%87%8C%E6%AF%94%E9%98%BF</t>
-  </si>
-  <si>
-    <t>波里比阿</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%93%B2%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>古希腊哲学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%88%A9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>泰利斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%AF%E5%A3%AB%E5%AD%B8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>辯士學派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%87%8C%E6%96%AF%E5%A4%9A%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>亞里斯多德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E9%B3%A9%E9%AD%AF%E5%AD%B8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>伊比鳩魯學派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%A4%9A%E4%BA%9E%E5%AD%B8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>斯多亞學派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8A%AC%E5%84%92%E5%AD%B8%E6%B4%BE</t>
-  </si>
-  <si>
-    <t>犬儒學派</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%99%E6%96%AF</t>
-  </si>
-  <si>
-    <t>宙斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%AE%97%E6%95%99</t>
-  </si>
-  <si>
-    <t>古希臘宗教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>奧林匹亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%A5%BF%E6%96%AF</t>
-  </si>
-  <si>
-    <t>艾西斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%85%E6%95%99</t>
-  </si>
-  <si>
-    <t>祅教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8C%B6%E5%A4%AA%E6%95%99</t>
-  </si>
-  <si>
-    <t>猶太教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E8%89%BA%E6%9C%AF</t>
-  </si>
-  <si>
-    <t>古希腊艺术</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E8%97%9D%E8%A1%93</t>
-  </si>
-  <si>
-    <t>西方藝術</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%86%99%E5%AE%9E</t>
-  </si>
-  <si>
-    <t>写实</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%89%B9%E9%B2%81%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>伊特鲁利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E5%B8%9D%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>亚历山大帝国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%85%8B%E5%B0%94%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>温克尔曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%BB%BA%E7%AF%89</t>
-  </si>
-  <si>
-    <t>古希臘建築</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F</t>
-  </si>
-  <si>
-    <t>古希臘神廟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%A5%9E%E5%BB%9F%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>古希臘神廟列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%AB%8B%E5%85%8B%E6%9F%B1%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>多立克柱式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E%E6%9F%B1%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>愛奧尼亞柱式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%9E%97%E6%96%AF%E6%9F%B1%E5%BC%8F</t>
-  </si>
-  <si>
-    <t>科林斯柱式</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E8%BE%B2%E7%A5%9E%E5%BB%9F</t>
-  </si>
-  <si>
-    <t>帕特農神廟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8A%A0%E9%A9%AC%E7%A5%AD%E5%9D%9B</t>
-  </si>
-  <si>
-    <t>帕加马祭坛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E9%9B%95%E5%88%BB</t>
-  </si>
-  <si>
-    <t>古希臘雕刻</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E7%8B%84%E4%BA%9A%E6%96%AF</t>
-  </si>
-  <si>
-    <t>菲狄亚斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E9%9A%86</t>
-  </si>
-  <si>
-    <t>米隆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%95%99%E5%85%8B%E5%88%97%E7%89%B9%E6%96%AF</t>
-  </si>
-  <si>
-    <t>波留克列特斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E6%B4%9B%E7%9A%84%E7%BB%B4%E7%BA%B3%E6%96%AF</t>
-  </si>
-  <si>
-    <t>米洛的维纳斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%96%A9%E8%8E%AB%E7%89%B9%E6%8B%89%E6%96%AF%E7%9A%84%E5%8B%9D%E5%88%A9%E5%A5%B3%E7%A5%9E</t>
-  </si>
-  <si>
-    <t>薩莫特拉斯的勝利女神</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E7%B9%AA%E7%95%AB</t>
-  </si>
-  <si>
-    <t>古希臘繪畫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E7%A7%91%E6%8A%80</t>
-  </si>
-  <si>
-    <t>古希腊科技</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>天文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B3%A2%E5%85%8B%E6%8B%89%E5%BA%95</t>
-  </si>
-  <si>
-    <t>希波克拉底</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%8C%E5%85%8B%E6%96%AF%E6%9D%AF</t>
-  </si>
-  <si>
-    <t>基里克斯杯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%B1%E5%8D%9A%E7%89%A9%E9%A6%86</t>
-  </si>
-  <si>
-    <t>大英博物馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E9%A5%AE%E9%A3%9F%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>古希腊饮食文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%A5%B4%E9%9A%B6%E5%88%B6%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>古希腊奴隶制度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%B0%91</t>
-  </si>
-  <si>
-    <t>農民</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%BA%A5</t>
-  </si>
-  <si>
-    <t>小麥</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84</t>
-  </si>
-  <si>
-    <t>葡萄</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A9%84%E6%AC%96</t>
-  </si>
-  <si>
-    <t>橄欖</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%95%86%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>商人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%B6%E5%99%A8</t>
-  </si>
-  <si>
-    <t>陶器</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%85%92</t>
-  </si>
-  <si>
-    <t>酒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E5%9B%BD%E5%AE%B6%E8%80%83%E5%8F%A4%E5%8D%9A%E7%89%A9%E9%A6%86</t>
-  </si>
-  <si>
-    <t>雅典国家考古博物馆</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B8</t>
-  </si>
-  <si>
-    <t>奴隸</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
-  </si>
-  <si>
-    <t>意大利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E8%89%BA%E5%A4%8D%E5%85%B4</t>
-  </si>
-  <si>
-    <t>文艺复兴</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%83%A7%E4%BE%A3</t>
-  </si>
-  <si>
-    <t>僧侣</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%B5%E6%97%8F</t>
-  </si>
-  <si>
-    <t>贵族</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AF%97%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>诗学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%AF%E8%92%99%E8%BF%90%E5%8A%A8</t>
-  </si>
-  <si>
-    <t>启蒙运动</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E7%BB%8F</t>
-  </si>
-  <si>
-    <t>圣经</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E8%BF%90%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>奥运会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%AF%9D</t>
-  </si>
-  <si>
-    <t>神话</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9B%A0%E9%87%8C%E5%B8%8C%C2%B7%E6%96%BD%E9%87%8C%E6%9B%BC</t>
-  </si>
-  <si>
-    <t>海因里希·施里曼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E6%B4%9B%E4%BC%8A</t>
-  </si>
-  <si>
-    <t>特洛伊</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>古希臘語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%93%B2%E5%AD%A6%E5%AE%B6</t>
-  </si>
-  <si>
-    <t>古希腊哲学家</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%95%B0%E5%AD%A6</t>
-  </si>
-  <si>
-    <t>古希腊数学</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%A4%A9%E6%96%87%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>古希臘天文學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E7%A5%9E%E8%AF%9D</t>
-  </si>
-  <si>
-    <t>古希腊神话</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%88%8F%E5%89%A7</t>
-  </si>
-  <si>
-    <t>古希腊戏剧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%82%B2%E5%89%A7</t>
-  </si>
-  <si>
-    <t>古希腊悲剧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%96%9C%E5%89%A7</t>
-  </si>
-  <si>
-    <t>古希腊喜剧</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E5%8D%AB%E7%94%9F</t>
-  </si>
-  <si>
-    <t>古希腊卫生</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E8%8E%8E%E5%A3%AB%E6%AF%94%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>威廉·莎士比亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E4%B9%8B%E6%97%85</t>
-  </si>
-  <si>
-    <t>發現之旅</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E4%B9%8B%E6%97%85%E5%8F%A2%E6%9B%B8%E6%9B%B8%E7%9B%AE%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>發現之旅叢書書目列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%A0%B1%E6%96%87%E5%8C%96</t>
-  </si>
-  <si>
-    <t>時報文化</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
-  </si>
-  <si>
-    <t>Wayback Machine</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Pierre_L%C3%A9v%C3%AAque</t>
-  </si>
-  <si>
-    <t>en-Pierre Lévêque</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%8F%A4%E5%B8%8C%E8%87%98</t>
-  </si>
-  <si>
-    <t>Template talk-古希臘</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E7%90%B4%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱琴海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E7%8E%8B%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>馬其頓王國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%A5%A5%E5%B0%BC%E4%BA%9A%E6%B5%B7</t>
-  </si>
-  <si>
-    <t>爱奥尼亚海</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%A5%A7%E5%B0%BC%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>愛奧尼亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A5%A5%E5%88%A9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>伊奥利亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%A1%E5%85%8B</t>
-  </si>
-  <si>
-    <t>安条克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E6%B8%AF</t>
-  </si>
-  <si>
-    <t>亚历山大港</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%8A%A0%E9%A9%AC</t>
-  </si>
-  <si>
-    <t>帕加马</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E5%BC%97%E6%89%80</t>
-  </si>
-  <si>
-    <t>以弗所</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%8D%A0%E5%BA%AD</t>
-  </si>
-  <si>
-    <t>拜占庭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%B0%94%E6%96%90</t>
-  </si>
-  <si>
-    <t>德尔斐</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%B4%9B%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>提洛岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E6%9E%97%E5%8C%B9%E4%BA%9A</t>
-  </si>
-  <si>
-    <t>奥林匹亚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%BE%97%E5%B2%9B</t>
-  </si>
-  <si>
-    <t>罗得岛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E7%89%B9</t>
-  </si>
-  <si>
-    <t>克里特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%BD%97%E5%A5%94%E5%B0%BC%E6%92%92</t>
-  </si>
-  <si>
-    <t>伯罗奔尼撒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%BA%87%E9%B2%81%E6%96%AF</t>
-  </si>
-  <si>
-    <t>伊庇鲁斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>賽普勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E9%83%BD</t>
-  </si>
-  <si>
-    <t>本都</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%AE%96%E6%B0%91%E5%9C%B0</t>
-  </si>
-  <si>
-    <t>古希臘殖民地</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E6%B3%95%E5%BE%8B</t>
-  </si>
-  <si>
-    <t>古希臘法律</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%B3%A3%E6%B7%AB%E6%A5%AD</t>
-  </si>
-  <si>
-    <t>古希臘賣淫業</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E8%8B%B1%E9%9B%84%E5%B4%87%E6%8B%9C</t>
-  </si>
-  <si>
-    <t>希臘英雄崇拜</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E4%BB%A3%E5%A5%A5%E6%9E%97%E5%8C%B9%E5%85%8B%E8%BF%90%E5%8A%A8%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>古代奥林匹克运动会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E6%88%98%E4%BA%89</t>
-  </si>
-  <si>
-    <t>古希腊战争</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E8%91%A1%E8%90%84%E9%85%92</t>
-  </si>
-  <si>
-    <t>古希臘葡萄酒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%90%8C%E6%80%A7%E6%88%80</t>
-  </si>
-  <si>
-    <t>古希臘同性戀</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%87%98%E5%B0%91%E5%B9%B4%E6%84%9B</t>
-  </si>
-  <si>
-    <t>古希臘少年愛</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%B8%8C%E8%85%8A%E4%B8%A7%E8%91%AC</t>
-  </si>
-  <si>
-    <t>古希腊丧葬</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%82%A3%E5%85%8B%E8%90%A8%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>阿那克萨哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%82%A3%E5%85%8B%E8%A5%BF%E6%9B%BC%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>阿那克西曼德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E9%82%A3%E5%85%8B%E8%A5%BF%E7%BE%8E%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>阿那克西美尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%8F%90%E8%A5%BF%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>安提西尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E9%87%8C%E5%A3%AB%E5%A4%9A%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>亚里士多德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%B0%9F%E5%85%8B%E5%88%A9%E7%89%B9</t>
-  </si>
-  <si>
-    <t>德谟克利特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E8%AF%BA%E6%99%AE%E7%9A%84%E7%AC%AC%E6%AC%A7%E6%A0%B9%E5%B0%BC</t>
-  </si>
-  <si>
-    <t>锡诺普的第欧根尼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%A3%81%E9%B8%A0%E9%B2%81</t>
-  </si>
-  <si>
-    <t>伊壁鸠鲁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%9F%B9%E5%A4%9A%E5%85%8B%E5%8B%92</t>
-  </si>
-  <si>
-    <t>恩培多克勒</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%8B%89%E5%85%8B%E5%88%A9%E7%89%B9</t>
-  </si>
-  <si>
-    <t>赫拉克利特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%95%99%E5%9F%BA%E4%BC%AF</t>
-  </si>
-  <si>
-    <t>留基伯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%88%BE%E5%90%89%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>高爾吉亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%97%A8%E5%B0%BC%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>巴门尼德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E7%BD%97%E6%B3%B0%E6%88%88%E6%8B%89</t>
-  </si>
-  <si>
-    <t>普罗泰戈拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AF%95%E8%BE%BE%E5%93%A5%E6%8B%89%E6%96%AF</t>
-  </si>
-  <si>
-    <t>毕达哥拉斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E6%A0%BC%E6%8B%89%E5%BA%95</t>
-  </si>
-  <si>
-    <t>苏格拉底</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%8B%92%E6%96%AF</t>
-  </si>
-  <si>
-    <t>泰勒斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%A3%E8%92%82%E6%98%82%E7%9A%84%E8%8A%9D%E8%AF%BA</t>
-  </si>
-  <si>
-    <t>季蒂昂的芝诺</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%B4%A2</t>
-  </si>
-  <si>
-    <t>伊索</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%90%89%E5%96%84</t>
-  </si>
-  <si>
-    <t>琉善</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%8D%97%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>米南德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E9%AD%AF%E5%A1%94%E5%85%8B</t>
-  </si>
-  <si>
-    <t>普魯塔克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%88%A9%E6%AF%94%E7%83%8F%E6%96%AF</t>
-  </si>
-  <si>
-    <t>波利比烏斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E5%AD%9A</t>
-  </si>
-  <si>
-    <t>莎孚</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%A5%A5%E6%A0%BC%E5%B0%BC%E6%96%AF</t>
-  </si>
-  <si>
-    <t>泰奥格尼斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E8%B0%9F%E5%85%8B%E5%8B%92%E7%BF%81</t>
-  </si>
-  <si>
-    <t>提谟克勒翁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E5%B0%94%E6%B3%B0%E5%A5%A5%E6%96%AF</t>
-  </si>
-  <si>
-    <t>提尔泰奥斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E8%A5%BF%E6%AF%94%E4%BA%9A%E5%BE%B7%E6%96%AF</t>
-  </si>
-  <si>
-    <t>阿尔西比亚德斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%9F%BA%E7%B1%B3%E5%BE%B7</t>
-  </si>
-  <si>
-    <t>阿基米德</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%96%AF%E5%B8%95%E9%BD%8A%E5%A9%AD</t>
-  </si>
-  <si>
-    <t>阿斯帕齊婭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E5%87%A0%E9%87%8C%E5%BE%97</t>
-  </si>
-  <si>
-    <t>欧几里得</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%96%9C%E5%B8%95%E6%81%B0%E6%96%AF</t>
-  </si>
-  <si>
-    <t>喜帕恰斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%A5%A5%E5%B0%BC%E8%BE%BE%E4%B8%80%E4%B8%96</t>
-  </si>
-  <si>
-    <t>列奥尼达一世</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E5%8F%A4%E6%A0%BC%E5%A3%AB</t>
-  </si>
-  <si>
-    <t>來古格士</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%BD%97%E6%89%98%E9%82%A3%E7%9A%84%E7%B1%B3%E7%BD%97</t>
-  </si>
-  <si>
-    <t>克罗托那的米罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8A%B3%E7%8B%84%E4%B9%8C%E6%96%AF%C2%B7%E6%89%98%E5%8B%92%E5%AF%86</t>
-  </si>
-  <si>
-    <t>克劳狄乌斯·托勒密</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%B1%B3%E6%96%AF%E6%89%98%E5%85%8B%E5%88%A9</t>
-  </si>
-  <si>
-    <t>地米斯托克利</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E5%BE%B7%E5%AB%A9%E7%A5%9E%E5%BB%9F</t>
-  </si>
-  <si>
-    <t>帕德嫩神廟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%80%B3%E5%BF%92%E5%BC%A5%E6%96%AF%E7%A5%9E%E5%BA%99</t>
-  </si>
-  <si>
-    <t>阿耳忒弥斯神庙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E5%85%B8%E8%A1%9B%E5%9F%8E</t>
-  </si>
-  <si>
-    <t>雅典衛城</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E9%9B%85%E5%85%B8%E9%98%BF%E5%93%A5%E6%8B%89</t>
-  </si>
-  <si>
-    <t>古雅典阿哥拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%E5%8C%B9%E4%BA%9E%E5%AE%99%E6%96%AF%E7%A5%9E%E5%BB%9F</t>
-  </si>
-  <si>
-    <t>奧林匹亞宙斯神廟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E6%B7%AE%E6%96%AF%E6%89%98%E6%96%AF%E7%A5%9E%E5%BA%99</t>
-  </si>
-  <si>
-    <t>赫淮斯托斯神庙</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E5%8F%B2%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>希臘史學</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E5%A7%8B%E5%B8%8C%E8%87%98%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>原始希臘語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%8C%AB%E5%B0%BC%E5%B8%8C%E8%87%98%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>邁錫尼希臘語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8F%90%E5%8D%A1%E5%B8%8C%E8%87%98%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>阿提卡希臘語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E7%94%A8%E5%B8%8C%E8%87%98%E8%AA%9E</t>
-  </si>
-  <si>
-    <t>通用希臘語</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E5%BD%A2%E6%96%87%E5%AD%97A</t>
-  </si>
-  <si>
-    <t>线形文字A</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%BF%E5%BD%A2%E6%96%87%E5%AD%97B</t>
-  </si>
-  <si>
-    <t>线形文字B</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E9%9F%B3%E7%AF%80%E6%96%87%E5%AD%97</t>
-  </si>
-  <si>
-    <t>塞浦路斯音節文字</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%AD%97%E6%AF%8D</t>
-  </si>
-  <si>
-    <t>希腊字母</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%84%AA%E5%8D%91%E4%BA%9E%E5%AD%97%E6%AF%8D</t>
-  </si>
-  <si>
-    <t>優卑亞字母</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E6%AC%A7%E6%B4%B2</t>
-  </si>
-  <si>
-    <t>史前欧洲</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%B8%96%E7%B4%80</t>
-  </si>
-  <si>
-    <t>中世紀</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -2736,7 +2679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I437"/>
+  <dimension ref="A1:I439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3918,7 +3861,7 @@
         <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -3944,10 +3887,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -4002,10 +3945,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>49</v>
@@ -4031,10 +3974,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>8</v>
@@ -4060,10 +4003,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -4089,10 +4032,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -4118,10 +4061,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -4147,10 +4090,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>11</v>
@@ -4176,10 +4119,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -4205,10 +4148,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -4234,10 +4177,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -4263,10 +4206,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>8</v>
@@ -4292,10 +4235,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -4321,10 +4264,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>12</v>
@@ -4350,10 +4293,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>13</v>
@@ -4379,10 +4322,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>9</v>
@@ -4408,10 +4351,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>15</v>
@@ -4437,10 +4380,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -4466,10 +4409,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -4495,10 +4438,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -4524,10 +4467,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -4553,10 +4496,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4582,10 +4525,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>5</v>
@@ -4611,10 +4554,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4640,10 +4583,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="G66" t="n">
         <v>3</v>
@@ -4698,10 +4641,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4727,10 +4670,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4756,10 +4699,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4785,10 +4728,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G71" t="n">
         <v>18</v>
@@ -4814,10 +4757,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -4843,10 +4786,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G73" t="n">
         <v>18</v>
@@ -4872,10 +4815,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -4901,10 +4844,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -4930,10 +4873,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G76" t="n">
         <v>2</v>
@@ -4959,10 +4902,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="G77" t="n">
         <v>4</v>
@@ -4988,10 +4931,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -5017,10 +4960,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G79" t="n">
         <v>5</v>
@@ -5046,10 +4989,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G80" t="n">
         <v>7</v>
@@ -5075,10 +5018,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -5104,10 +5047,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -5133,10 +5076,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5162,10 +5105,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -5191,10 +5134,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -5220,10 +5163,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -5249,10 +5192,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -5278,10 +5221,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>2</v>
@@ -5307,10 +5250,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5365,10 +5308,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -5394,10 +5337,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5423,10 +5366,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5452,10 +5395,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -5481,10 +5424,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F95" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -5510,10 +5453,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F96" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G96" t="n">
         <v>20</v>
@@ -5539,10 +5482,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F97" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -5568,10 +5511,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="F98" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5597,10 +5540,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F99" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -5626,10 +5569,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5655,10 +5598,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F101" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G101" t="n">
         <v>5</v>
@@ -5684,10 +5627,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F102" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5713,10 +5656,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F103" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5742,10 +5685,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F104" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>2</v>
@@ -5771,10 +5714,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>82</v>
+      </c>
+      <c r="F105" t="s">
         <v>83</v>
-      </c>
-      <c r="F105" t="s">
-        <v>84</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5800,10 +5743,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="G106" t="n">
         <v>6</v>
@@ -5829,10 +5772,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5858,10 +5801,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5887,10 +5830,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5916,10 +5859,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5945,10 +5888,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="G111" t="n">
         <v>3</v>
@@ -5974,10 +5917,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="G112" t="n">
         <v>4</v>
@@ -6003,10 +5946,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -6032,10 +5975,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F114" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G114" t="n">
         <v>13</v>
@@ -6061,10 +6004,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F115" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -6090,10 +6033,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="F116" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="G116" t="n">
         <v>5</v>
@@ -6119,10 +6062,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F117" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -6148,10 +6091,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6177,10 +6120,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F119" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G119" t="n">
         <v>5</v>
@@ -6206,10 +6149,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F120" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6235,10 +6178,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6264,10 +6207,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6293,10 +6236,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>86</v>
+      </c>
+      <c r="F123" t="s">
         <v>87</v>
-      </c>
-      <c r="F123" t="s">
-        <v>88</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -6322,10 +6265,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -6351,10 +6294,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -6380,10 +6323,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="F126" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -6409,10 +6352,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>86</v>
+      </c>
+      <c r="F127" t="s">
         <v>87</v>
-      </c>
-      <c r="F127" t="s">
-        <v>88</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6438,10 +6381,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="G128" t="n">
         <v>4</v>
@@ -6467,10 +6410,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -6496,10 +6439,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6525,10 +6468,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6554,10 +6497,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6583,10 +6526,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6612,10 +6555,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6641,10 +6584,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6670,10 +6613,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F136" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G136" t="n">
         <v>10</v>
@@ -6699,10 +6642,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="F137" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -6728,10 +6671,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="F138" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6757,10 +6700,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F139" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G139" t="n">
         <v>17</v>
@@ -6786,10 +6729,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="F140" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6815,10 +6758,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F141" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6844,10 +6787,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="F142" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6873,10 +6816,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G143" t="n">
         <v>2</v>
@@ -6902,10 +6845,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6931,10 +6874,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6960,10 +6903,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6989,10 +6932,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F147" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G147" t="n">
         <v>10</v>
@@ -7018,10 +6961,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="F148" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G148" t="n">
         <v>9</v>
@@ -7047,10 +6990,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F149" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7076,10 +7019,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="F150" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -7105,10 +7048,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F151" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -7134,10 +7077,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F152" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7192,10 +7135,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F154" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7221,10 +7164,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F155" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -7250,10 +7193,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F156" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7279,10 +7222,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F157" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7308,10 +7251,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F158" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7337,10 +7280,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F159" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G159" t="n">
         <v>5</v>
@@ -7366,10 +7309,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F160" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7395,10 +7338,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F161" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7424,10 +7367,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F162" t="s">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7453,10 +7396,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F163" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7482,10 +7425,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F164" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7511,10 +7454,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F165" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7540,10 +7483,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F166" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G166" t="n">
         <v>6</v>
@@ -7569,10 +7512,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F167" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7598,10 +7541,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F168" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="G168" t="n">
         <v>4</v>
@@ -7627,10 +7570,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F169" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7656,10 +7599,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F170" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="G170" t="n">
         <v>4</v>
@@ -7685,10 +7628,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F171" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7714,10 +7657,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F172" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7743,10 +7686,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F173" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7772,10 +7715,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F174" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7801,10 +7744,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F175" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7830,10 +7773,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F176" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7859,10 +7802,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F177" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7888,10 +7831,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F178" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7917,10 +7860,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F179" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G179" t="n">
         <v>61</v>
@@ -7946,10 +7889,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F180" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -7975,10 +7918,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F181" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8004,10 +7947,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F182" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8033,10 +7976,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F183" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8062,10 +8005,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F184" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -8091,10 +8034,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F185" t="s">
-        <v>342</v>
+        <v>160</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8120,10 +8063,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="F186" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8149,10 +8092,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="F187" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8178,10 +8121,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="F188" t="s">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8207,10 +8150,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="F189" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="G189" t="n">
         <v>3</v>
@@ -8236,10 +8179,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="F190" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8265,10 +8208,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F191" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8294,10 +8237,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F192" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G192" t="n">
         <v>7</v>
@@ -8323,10 +8266,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F193" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8352,10 +8295,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F194" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8381,10 +8324,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F195" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8410,10 +8353,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F196" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8439,10 +8382,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F197" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8468,10 +8411,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F198" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8497,10 +8440,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F199" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="G199" t="n">
         <v>4</v>
@@ -8526,10 +8469,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="F200" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8555,10 +8498,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="F201" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8584,10 +8527,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="F202" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -8613,10 +8556,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F203" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8642,10 +8585,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="F204" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8671,10 +8614,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F205" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -8700,10 +8643,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F206" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8729,10 +8672,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F207" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8758,10 +8701,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="F208" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -8787,10 +8730,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="F209" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8816,10 +8759,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8845,10 +8788,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="G211" t="n">
         <v>5</v>
@@ -8874,10 +8817,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8903,10 +8846,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8932,10 +8875,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="G214" t="n">
         <v>5</v>
@@ -8961,10 +8904,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="G215" t="n">
         <v>5</v>
@@ -8990,10 +8933,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -9019,10 +8962,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9048,10 +8991,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="G218" t="n">
         <v>14</v>
@@ -9077,10 +9020,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="G219" t="n">
         <v>2</v>
@@ -9106,10 +9049,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -9135,10 +9078,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="F221" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9164,10 +9107,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="F222" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G222" t="n">
         <v>4</v>
@@ -9193,10 +9136,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F223" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9222,10 +9165,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="F224" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9251,10 +9194,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="F225" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9280,10 +9223,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F226" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9309,10 +9252,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="F227" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="G227" t="n">
         <v>2</v>
@@ -9338,10 +9281,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F228" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9367,10 +9310,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="G229" t="n">
         <v>2</v>
@@ -9396,10 +9339,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="F230" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -9425,10 +9368,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F231" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9454,10 +9397,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="F232" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="G232" t="n">
         <v>6</v>
@@ -9483,10 +9426,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="F233" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -9512,10 +9455,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="F234" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9541,10 +9484,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="F235" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9570,10 +9513,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="F236" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="G236" t="n">
         <v>2</v>
@@ -9599,10 +9542,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="F237" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9628,10 +9571,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="F238" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9657,10 +9600,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="F239" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9686,10 +9629,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="F240" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9715,10 +9658,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="F241" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9744,10 +9687,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="F242" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9773,10 +9716,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F243" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9802,10 +9745,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="F244" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9831,10 +9774,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F245" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G245" t="n">
         <v>23</v>
@@ -9860,10 +9803,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="F246" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9889,10 +9832,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="F247" t="s">
-        <v>464</v>
+        <v>154</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -9918,10 +9861,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>465</v>
+        <v>452</v>
       </c>
       <c r="F248" t="s">
-        <v>466</v>
+        <v>453</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9947,10 +9890,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>467</v>
+        <v>454</v>
       </c>
       <c r="F249" t="s">
-        <v>468</v>
+        <v>455</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9976,10 +9919,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="F250" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -10005,10 +9948,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="F251" t="s">
-        <v>472</v>
+        <v>459</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10034,10 +9977,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="F252" t="s">
-        <v>474</v>
+        <v>461</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10063,10 +10006,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>475</v>
+        <v>462</v>
       </c>
       <c r="F253" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -10092,10 +10035,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="F254" t="s">
-        <v>478</v>
+        <v>465</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10121,10 +10064,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="F255" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10150,10 +10093,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="F256" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="G256" t="n">
         <v>2</v>
@@ -10179,10 +10122,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="F257" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="G257" t="n">
         <v>3</v>
@@ -10208,10 +10151,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="F258" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10237,10 +10180,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="F259" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="G259" t="n">
         <v>2</v>
@@ -10266,10 +10209,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="F260" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10295,10 +10238,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>491</v>
+        <v>478</v>
       </c>
       <c r="F261" t="s">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10324,10 +10267,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="F262" t="s">
-        <v>494</v>
+        <v>481</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10353,10 +10296,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
       <c r="F263" t="s">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="G263" t="n">
         <v>9</v>
@@ -10382,10 +10325,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="F264" t="s">
-        <v>498</v>
+        <v>485</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10411,10 +10354,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="F265" t="s">
-        <v>500</v>
+        <v>487</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10440,10 +10383,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="F266" t="s">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10469,10 +10412,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>503</v>
+        <v>490</v>
       </c>
       <c r="F267" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10498,10 +10441,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="F268" t="s">
-        <v>506</v>
+        <v>493</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10527,10 +10470,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F269" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="G269" t="n">
         <v>3</v>
@@ -10556,10 +10499,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F270" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="G270" t="n">
         <v>4</v>
@@ -10585,10 +10528,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="F271" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10614,10 +10557,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="F272" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10643,10 +10586,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="F273" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10672,10 +10615,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="F274" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10701,10 +10644,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="F275" t="s">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="G275" t="n">
         <v>2</v>
@@ -10730,10 +10673,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F276" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10759,10 +10702,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F277" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G277" t="n">
         <v>2</v>
@@ -10788,10 +10731,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F278" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10817,10 +10760,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="F279" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G279" t="n">
         <v>3</v>
@@ -10846,10 +10789,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F280" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10875,10 +10818,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F281" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10904,10 +10847,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="F282" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10933,10 +10876,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="F283" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="G283" t="n">
         <v>5</v>
@@ -10962,10 +10905,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F284" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10991,10 +10934,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F285" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G285" t="n">
         <v>5</v>
@@ -11020,10 +10963,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F286" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11049,10 +10992,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F287" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11078,10 +11021,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="F288" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11107,10 +11050,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F289" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11136,10 +11079,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F290" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11165,10 +11108,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F291" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G291" t="n">
         <v>3</v>
@@ -11194,10 +11137,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F292" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11223,10 +11166,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F293" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G293" t="n">
         <v>6</v>
@@ -11252,10 +11195,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F294" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G294" t="n">
         <v>6</v>
@@ -11281,10 +11224,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F295" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G295" t="n">
         <v>4</v>
@@ -11310,10 +11253,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F296" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G296" t="n">
         <v>5</v>
@@ -11339,10 +11282,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F297" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G297" t="n">
         <v>9</v>
@@ -11368,10 +11311,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F298" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11397,10 +11340,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F299" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G299" t="n">
         <v>2</v>
@@ -11426,10 +11369,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F300" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11455,10 +11398,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F301" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11484,10 +11427,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="F302" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11513,10 +11456,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F303" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G303" t="n">
         <v>3</v>
@@ -11542,10 +11485,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F304" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11571,10 +11514,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F305" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11600,10 +11543,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="F306" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11629,10 +11572,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F307" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="G307" t="n">
         <v>2</v>
@@ -11658,10 +11601,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F308" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G308" t="n">
         <v>5</v>
@@ -11687,10 +11630,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F309" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11716,10 +11659,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="F310" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G310" t="n">
         <v>3</v>
@@ -11745,10 +11688,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F311" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11774,10 +11717,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F312" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G312" t="n">
         <v>2</v>
@@ -11803,10 +11746,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="F313" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11832,10 +11775,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="F314" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11861,10 +11804,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="F315" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11890,10 +11833,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F316" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11919,10 +11862,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F317" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11948,10 +11891,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="F318" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -11977,10 +11920,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="F319" t="s">
-        <v>602</v>
+        <v>410</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12006,10 +11949,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="F320" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12035,10 +11978,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="F321" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12064,10 +12007,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="F322" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12093,10 +12036,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="F323" t="s">
-        <v>354</v>
+        <v>342</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12122,10 +12065,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="F324" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12151,10 +12094,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
       <c r="F325" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12180,10 +12123,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
       <c r="F326" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
       <c r="G326" t="n">
         <v>3</v>
@@ -12209,10 +12152,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="F327" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12238,10 +12181,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="F328" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12267,10 +12210,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="F329" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12296,10 +12239,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="F330" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
       <c r="G330" t="n">
         <v>4</v>
@@ -12441,10 +12384,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
       <c r="F335" t="s">
-        <v>624</v>
+        <v>78</v>
       </c>
       <c r="G335" t="n">
         <v>2</v>
@@ -12470,10 +12413,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
       <c r="F336" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12499,10 +12442,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
+        <v>84</v>
+      </c>
+      <c r="F337" t="s">
         <v>85</v>
-      </c>
-      <c r="F337" t="s">
-        <v>86</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12528,10 +12471,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="F338" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12557,10 +12500,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="F339" t="s">
-        <v>628</v>
+        <v>275</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12586,10 +12529,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>629</v>
+        <v>612</v>
       </c>
       <c r="F340" t="s">
-        <v>630</v>
+        <v>613</v>
       </c>
       <c r="G340" t="n">
         <v>8</v>
@@ -12615,10 +12558,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>631</v>
+        <v>614</v>
       </c>
       <c r="F341" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12644,10 +12587,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F342" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12673,10 +12616,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="F343" t="s">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12702,10 +12645,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>635</v>
+        <v>618</v>
       </c>
       <c r="F344" t="s">
-        <v>636</v>
+        <v>619</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12731,10 +12674,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>637</v>
+        <v>620</v>
       </c>
       <c r="F345" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12760,10 +12703,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="F346" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12789,10 +12732,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="F347" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12818,10 +12761,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="F348" t="s">
-        <v>644</v>
+        <v>627</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12847,10 +12790,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>645</v>
+        <v>628</v>
       </c>
       <c r="F349" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12876,10 +12819,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="F350" t="s">
-        <v>648</v>
+        <v>475</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -12905,10 +12848,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="F351" t="s">
-        <v>650</v>
+        <v>632</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12934,10 +12877,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="F352" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="G352" t="n">
         <v>4</v>
@@ -12963,10 +12906,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="F353" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="G353" t="n">
         <v>6</v>
@@ -12992,10 +12935,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="F354" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="G354" t="n">
         <v>2</v>
@@ -13021,10 +12964,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="F355" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13050,10 +12993,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="F356" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13079,10 +13022,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F357" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13108,10 +13051,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="F358" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13137,10 +13080,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F359" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="G359" t="n">
         <v>8</v>
@@ -13166,10 +13109,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F360" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13195,10 +13138,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F361" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13224,10 +13167,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="F362" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="G362" t="n">
         <v>12</v>
@@ -13253,10 +13196,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F363" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G363" t="n">
         <v>13</v>
@@ -13282,10 +13225,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="F364" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="G364" t="n">
         <v>7</v>
@@ -13311,10 +13254,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="F365" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13340,10 +13283,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
       <c r="F366" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13369,10 +13312,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F367" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13398,10 +13341,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
       <c r="F368" t="s">
-        <v>670</v>
+        <v>139</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13427,10 +13370,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="F369" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G369" t="n">
         <v>3</v>
@@ -13456,10 +13399,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>671</v>
+        <v>652</v>
       </c>
       <c r="F370" t="s">
-        <v>672</v>
+        <v>653</v>
       </c>
       <c r="G370" t="n">
         <v>12</v>
@@ -13485,10 +13428,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="F371" t="s">
-        <v>674</v>
+        <v>655</v>
       </c>
       <c r="G371" t="n">
         <v>3</v>
@@ -13514,10 +13457,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>675</v>
+        <v>656</v>
       </c>
       <c r="F372" t="s">
-        <v>676</v>
+        <v>657</v>
       </c>
       <c r="G372" t="n">
         <v>1</v>
@@ -13543,10 +13486,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>677</v>
+        <v>658</v>
       </c>
       <c r="F373" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13572,10 +13515,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="F374" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13601,10 +13544,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="F375" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="G375" t="n">
         <v>3</v>
@@ -13630,10 +13573,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="F376" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13659,10 +13602,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F377" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13688,10 +13631,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="F378" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13717,10 +13660,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="F379" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13746,10 +13689,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>689</v>
+        <v>670</v>
       </c>
       <c r="F380" t="s">
-        <v>690</v>
+        <v>162</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13775,10 +13718,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="F381" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13804,10 +13747,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="F382" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G382" t="n">
         <v>1</v>
@@ -13833,10 +13776,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="F383" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13862,10 +13805,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="F384" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="G384" t="n">
         <v>1</v>
@@ -13891,10 +13834,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="F385" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13920,10 +13863,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="F386" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13949,10 +13892,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="F387" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13978,10 +13921,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="F388" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14007,10 +13950,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="F389" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14036,10 +13979,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="F390" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14065,10 +14008,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="F391" t="s">
-        <v>712</v>
+        <v>158</v>
       </c>
       <c r="G391" t="n">
         <v>1</v>
@@ -14094,10 +14037,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>713</v>
+        <v>692</v>
       </c>
       <c r="F392" t="s">
-        <v>714</v>
+        <v>693</v>
       </c>
       <c r="G392" t="n">
         <v>2</v>
@@ -14123,10 +14066,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>715</v>
+        <v>694</v>
       </c>
       <c r="F393" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14152,10 +14095,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F394" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G394" t="n">
         <v>8</v>
@@ -14181,10 +14124,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="F395" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14210,10 +14153,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>719</v>
+        <v>698</v>
       </c>
       <c r="F396" t="s">
-        <v>720</v>
+        <v>699</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14239,10 +14182,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>721</v>
+        <v>700</v>
       </c>
       <c r="F397" t="s">
-        <v>722</v>
+        <v>701</v>
       </c>
       <c r="G397" t="n">
         <v>2</v>
@@ -14268,10 +14211,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="F398" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14297,10 +14240,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>725</v>
+        <v>704</v>
       </c>
       <c r="F399" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14326,10 +14269,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="F400" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14355,10 +14298,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="F401" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14384,10 +14327,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>731</v>
+        <v>710</v>
       </c>
       <c r="F402" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14413,10 +14356,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>733</v>
+        <v>712</v>
       </c>
       <c r="F403" t="s">
-        <v>734</v>
+        <v>713</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14442,10 +14385,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="F404" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14471,10 +14414,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="F405" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="G405" t="n">
         <v>2</v>
@@ -14500,10 +14443,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="F406" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14529,10 +14472,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>741</v>
+        <v>720</v>
       </c>
       <c r="F407" t="s">
-        <v>742</v>
+        <v>721</v>
       </c>
       <c r="G407" t="n">
         <v>2</v>
@@ -14558,10 +14501,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="F408" t="s">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14587,10 +14530,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="F409" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="G409" t="n">
         <v>1</v>
@@ -14616,10 +14559,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>747</v>
+        <v>726</v>
       </c>
       <c r="F410" t="s">
-        <v>748</v>
+        <v>727</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14645,10 +14588,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>749</v>
+        <v>728</v>
       </c>
       <c r="F411" t="s">
-        <v>750</v>
+        <v>729</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14674,10 +14617,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>751</v>
+        <v>730</v>
       </c>
       <c r="F412" t="s">
-        <v>752</v>
+        <v>731</v>
       </c>
       <c r="G412" t="n">
         <v>6</v>
@@ -14703,10 +14646,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="F413" t="s">
-        <v>754</v>
+        <v>733</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14732,10 +14675,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F414" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="G414" t="n">
         <v>17</v>
@@ -14761,10 +14704,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>755</v>
+        <v>734</v>
       </c>
       <c r="F415" t="s">
-        <v>756</v>
+        <v>735</v>
       </c>
       <c r="G415" t="n">
         <v>2</v>
@@ -14790,10 +14733,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>757</v>
+        <v>736</v>
       </c>
       <c r="F416" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14819,10 +14762,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="F417" t="s">
-        <v>760</v>
+        <v>3</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -14848,10 +14791,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="F418" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -14877,10 +14820,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="F419" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -14906,10 +14849,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="F420" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -14935,10 +14878,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="F421" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="G421" t="n">
         <v>11</v>
@@ -14964,10 +14907,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F422" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G422" t="n">
         <v>12</v>
@@ -14993,10 +14936,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="F423" t="s">
-        <v>602</v>
+        <v>410</v>
       </c>
       <c r="G423" t="n">
         <v>9</v>
@@ -15022,10 +14965,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="F424" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="G424" t="n">
         <v>8</v>
@@ -15051,10 +14994,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="F425" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G425" t="n">
         <v>3</v>
@@ -15080,10 +15023,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F426" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15109,10 +15052,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
       <c r="F427" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15138,10 +15081,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="F428" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15167,10 +15110,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="F429" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15196,10 +15139,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="F430" t="s">
-        <v>776</v>
+        <v>754</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15225,10 +15168,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>777</v>
+        <v>755</v>
       </c>
       <c r="F431" t="s">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15254,10 +15197,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>779</v>
+        <v>757</v>
       </c>
       <c r="F432" t="s">
-        <v>780</v>
+        <v>758</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15283,10 +15226,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>781</v>
+        <v>759</v>
       </c>
       <c r="F433" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15312,10 +15255,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="F434" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15341,10 +15284,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="F435" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="G435" t="n">
         <v>1</v>
@@ -15370,10 +15313,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="F436" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15399,10 +15342,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="F437" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="G437" t="n">
         <v>2</v>
@@ -15411,6 +15354,64 @@
         <v>4</v>
       </c>
       <c r="I437" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C438" t="s">
+        <v>1</v>
+      </c>
+      <c r="D438" t="n">
+        <v>437</v>
+      </c>
+      <c r="E438" t="s">
+        <v>769</v>
+      </c>
+      <c r="F438" t="s">
+        <v>770</v>
+      </c>
+      <c r="G438" t="n">
+        <v>24</v>
+      </c>
+      <c r="H438" t="s">
+        <v>4</v>
+      </c>
+      <c r="I438" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" t="s">
+        <v>1</v>
+      </c>
+      <c r="D439" t="n">
+        <v>438</v>
+      </c>
+      <c r="E439" t="s">
+        <v>769</v>
+      </c>
+      <c r="F439" t="s">
+        <v>771</v>
+      </c>
+      <c r="G439" t="n">
+        <v>1</v>
+      </c>
+      <c r="H439" t="s">
+        <v>4</v>
+      </c>
+      <c r="I439" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/古希腊_intext.xlsx
+++ b/xlsx/古希腊_intext.xlsx
@@ -29,7 +29,7 @@
     <t>雅典卫城</t>
   </si>
   <si>
-    <t>政策_政策_政治_古希腊</t>
+    <t>体育运动_体育运动_古希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E7%89%B9%E5%86%9C%E7%A5%9E%E5%BA%99</t>
@@ -2796,7 +2796,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2825,7 +2825,7 @@
         <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2854,7 +2854,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2883,7 +2883,7 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2912,7 +2912,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2941,7 +2941,7 @@
         <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2970,7 +2970,7 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2999,7 +2999,7 @@
         <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3028,7 +3028,7 @@
         <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3057,7 +3057,7 @@
         <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3086,7 +3086,7 @@
         <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3115,7 +3115,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3144,7 +3144,7 @@
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3173,7 +3173,7 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3202,7 +3202,7 @@
         <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3231,7 +3231,7 @@
         <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3260,7 +3260,7 @@
         <v>4</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3289,7 +3289,7 @@
         <v>4</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3318,7 +3318,7 @@
         <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3347,7 +3347,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3376,7 +3376,7 @@
         <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3405,7 +3405,7 @@
         <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3434,7 +3434,7 @@
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3463,7 +3463,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3492,7 +3492,7 @@
         <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3521,7 +3521,7 @@
         <v>4</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3550,7 +3550,7 @@
         <v>4</v>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3579,7 +3579,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3608,7 +3608,7 @@
         <v>4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3637,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -3666,7 +3666,7 @@
         <v>4</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -3695,7 +3695,7 @@
         <v>4</v>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -3724,7 +3724,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -3753,7 +3753,7 @@
         <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -3782,7 +3782,7 @@
         <v>4</v>
       </c>
       <c r="I36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -3811,7 +3811,7 @@
         <v>4</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -3840,7 +3840,7 @@
         <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -3869,7 +3869,7 @@
         <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -3898,7 +3898,7 @@
         <v>4</v>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -3927,7 +3927,7 @@
         <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -3956,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -3985,7 +3985,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4014,7 +4014,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4043,7 +4043,7 @@
         <v>4</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4072,7 +4072,7 @@
         <v>4</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4101,7 +4101,7 @@
         <v>4</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4130,7 +4130,7 @@
         <v>4</v>
       </c>
       <c r="I48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4159,7 +4159,7 @@
         <v>4</v>
       </c>
       <c r="I49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4188,7 +4188,7 @@
         <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4217,7 +4217,7 @@
         <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4246,7 +4246,7 @@
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4275,7 +4275,7 @@
         <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4304,7 +4304,7 @@
         <v>4</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4333,7 +4333,7 @@
         <v>4</v>
       </c>
       <c r="I55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4362,7 +4362,7 @@
         <v>4</v>
       </c>
       <c r="I56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4391,7 +4391,7 @@
         <v>4</v>
       </c>
       <c r="I57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4420,7 +4420,7 @@
         <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4449,7 +4449,7 @@
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4478,7 +4478,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4507,7 +4507,7 @@
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4536,7 +4536,7 @@
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4565,7 +4565,7 @@
         <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4594,7 +4594,7 @@
         <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4623,7 +4623,7 @@
         <v>4</v>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -4652,7 +4652,7 @@
         <v>4</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -4681,7 +4681,7 @@
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -4710,7 +4710,7 @@
         <v>4</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -4739,7 +4739,7 @@
         <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -4768,7 +4768,7 @@
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -4797,7 +4797,7 @@
         <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -4826,7 +4826,7 @@
         <v>4</v>
       </c>
       <c r="I72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -4855,7 +4855,7 @@
         <v>4</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -4884,7 +4884,7 @@
         <v>4</v>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -4913,7 +4913,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -4942,7 +4942,7 @@
         <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -4971,7 +4971,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5000,7 +5000,7 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5029,7 +5029,7 @@
         <v>4</v>
       </c>
       <c r="I79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5058,7 +5058,7 @@
         <v>4</v>
       </c>
       <c r="I80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5087,7 +5087,7 @@
         <v>4</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5116,7 +5116,7 @@
         <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5145,7 +5145,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5174,7 +5174,7 @@
         <v>4</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5203,7 +5203,7 @@
         <v>4</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5232,7 +5232,7 @@
         <v>4</v>
       </c>
       <c r="I86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5261,7 +5261,7 @@
         <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5290,7 +5290,7 @@
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5319,7 +5319,7 @@
         <v>4</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5348,7 +5348,7 @@
         <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5377,7 +5377,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5406,7 +5406,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5435,7 +5435,7 @@
         <v>4</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5464,7 +5464,7 @@
         <v>4</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5493,7 +5493,7 @@
         <v>4</v>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5522,7 +5522,7 @@
         <v>4</v>
       </c>
       <c r="I96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5551,7 +5551,7 @@
         <v>4</v>
       </c>
       <c r="I97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5580,7 +5580,7 @@
         <v>4</v>
       </c>
       <c r="I98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5609,7 +5609,7 @@
         <v>4</v>
       </c>
       <c r="I99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5638,7 +5638,7 @@
         <v>4</v>
       </c>
       <c r="I100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -5667,7 +5667,7 @@
         <v>4</v>
       </c>
       <c r="I101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -5696,7 +5696,7 @@
         <v>4</v>
       </c>
       <c r="I102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -5725,7 +5725,7 @@
         <v>4</v>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -5754,7 +5754,7 @@
         <v>4</v>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -5783,7 +5783,7 @@
         <v>4</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -5812,7 +5812,7 @@
         <v>4</v>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -5841,7 +5841,7 @@
         <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -5870,7 +5870,7 @@
         <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -5899,7 +5899,7 @@
         <v>4</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -5928,7 +5928,7 @@
         <v>4</v>
       </c>
       <c r="I110" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -5957,7 +5957,7 @@
         <v>4</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -5986,7 +5986,7 @@
         <v>4</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -6015,7 +6015,7 @@
         <v>4</v>
       </c>
       <c r="I113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -6044,7 +6044,7 @@
         <v>4</v>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -6073,7 +6073,7 @@
         <v>4</v>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -6102,7 +6102,7 @@
         <v>4</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -6131,7 +6131,7 @@
         <v>4</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -6160,7 +6160,7 @@
         <v>4</v>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:9">
@@ -6189,7 +6189,7 @@
         <v>4</v>
       </c>
       <c r="I119" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -6218,7 +6218,7 @@
         <v>4</v>
       </c>
       <c r="I120" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -6247,7 +6247,7 @@
         <v>4</v>
       </c>
       <c r="I121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -6276,7 +6276,7 @@
         <v>4</v>
       </c>
       <c r="I122" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -6305,7 +6305,7 @@
         <v>4</v>
       </c>
       <c r="I123" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -6334,7 +6334,7 @@
         <v>4</v>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -6363,7 +6363,7 @@
         <v>4</v>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -6392,7 +6392,7 @@
         <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -6421,7 +6421,7 @@
         <v>4</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -6450,7 +6450,7 @@
         <v>4</v>
       </c>
       <c r="I128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -6479,7 +6479,7 @@
         <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -6508,7 +6508,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -6537,7 +6537,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -6566,7 +6566,7 @@
         <v>4</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -6595,7 +6595,7 @@
         <v>4</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -6624,7 +6624,7 @@
         <v>4</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -6653,7 +6653,7 @@
         <v>4</v>
       </c>
       <c r="I135" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -6682,7 +6682,7 @@
         <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -6711,7 +6711,7 @@
         <v>4</v>
       </c>
       <c r="I137" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -6740,7 +6740,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -6769,7 +6769,7 @@
         <v>4</v>
       </c>
       <c r="I139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -6798,7 +6798,7 @@
         <v>4</v>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -6827,7 +6827,7 @@
         <v>4</v>
       </c>
       <c r="I141" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -6856,7 +6856,7 @@
         <v>4</v>
       </c>
       <c r="I142" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -6885,7 +6885,7 @@
         <v>4</v>
       </c>
       <c r="I143" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -6914,7 +6914,7 @@
         <v>4</v>
       </c>
       <c r="I144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -6943,7 +6943,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -6972,7 +6972,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -7001,7 +7001,7 @@
         <v>4</v>
       </c>
       <c r="I147" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -7030,7 +7030,7 @@
         <v>4</v>
       </c>
       <c r="I148" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -7059,7 +7059,7 @@
         <v>4</v>
       </c>
       <c r="I149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -7088,7 +7088,7 @@
         <v>4</v>
       </c>
       <c r="I150" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -7117,7 +7117,7 @@
         <v>4</v>
       </c>
       <c r="I151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -7146,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -7175,7 +7175,7 @@
         <v>4</v>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -7204,7 +7204,7 @@
         <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -7233,7 +7233,7 @@
         <v>4</v>
       </c>
       <c r="I155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -7262,7 +7262,7 @@
         <v>4</v>
       </c>
       <c r="I156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -7291,7 +7291,7 @@
         <v>4</v>
       </c>
       <c r="I157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -7320,7 +7320,7 @@
         <v>4</v>
       </c>
       <c r="I158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -7349,7 +7349,7 @@
         <v>4</v>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -7378,7 +7378,7 @@
         <v>4</v>
       </c>
       <c r="I160" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -7407,7 +7407,7 @@
         <v>4</v>
       </c>
       <c r="I161" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -7436,7 +7436,7 @@
         <v>4</v>
       </c>
       <c r="I162" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -7465,7 +7465,7 @@
         <v>4</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -7494,7 +7494,7 @@
         <v>4</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -7523,7 +7523,7 @@
         <v>4</v>
       </c>
       <c r="I165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -7552,7 +7552,7 @@
         <v>4</v>
       </c>
       <c r="I166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -7581,7 +7581,7 @@
         <v>4</v>
       </c>
       <c r="I167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -7610,7 +7610,7 @@
         <v>4</v>
       </c>
       <c r="I168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -7639,7 +7639,7 @@
         <v>4</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -7668,7 +7668,7 @@
         <v>4</v>
       </c>
       <c r="I170" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -7697,7 +7697,7 @@
         <v>4</v>
       </c>
       <c r="I171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -7726,7 +7726,7 @@
         <v>4</v>
       </c>
       <c r="I172" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -7755,7 +7755,7 @@
         <v>4</v>
       </c>
       <c r="I173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -7784,7 +7784,7 @@
         <v>4</v>
       </c>
       <c r="I174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -7813,7 +7813,7 @@
         <v>4</v>
       </c>
       <c r="I175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -7842,7 +7842,7 @@
         <v>4</v>
       </c>
       <c r="I176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -7871,7 +7871,7 @@
         <v>4</v>
       </c>
       <c r="I177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -7900,7 +7900,7 @@
         <v>4</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -7929,7 +7929,7 @@
         <v>4</v>
       </c>
       <c r="I179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:9">
@@ -7958,7 +7958,7 @@
         <v>4</v>
       </c>
       <c r="I180" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -7987,7 +7987,7 @@
         <v>4</v>
       </c>
       <c r="I181" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -8016,7 +8016,7 @@
         <v>4</v>
       </c>
       <c r="I182" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -8045,7 +8045,7 @@
         <v>4</v>
       </c>
       <c r="I183" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -8074,7 +8074,7 @@
         <v>4</v>
       </c>
       <c r="I184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -8103,7 +8103,7 @@
         <v>4</v>
       </c>
       <c r="I185" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -8132,7 +8132,7 @@
         <v>4</v>
       </c>
       <c r="I186" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -8161,7 +8161,7 @@
         <v>4</v>
       </c>
       <c r="I187" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -8190,7 +8190,7 @@
         <v>4</v>
       </c>
       <c r="I188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -8219,7 +8219,7 @@
         <v>4</v>
       </c>
       <c r="I189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -8248,7 +8248,7 @@
         <v>4</v>
       </c>
       <c r="I190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -8277,7 +8277,7 @@
         <v>4</v>
       </c>
       <c r="I191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -8306,7 +8306,7 @@
         <v>4</v>
       </c>
       <c r="I192" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -8335,7 +8335,7 @@
         <v>4</v>
       </c>
       <c r="I193" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -8364,7 +8364,7 @@
         <v>4</v>
       </c>
       <c r="I194" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -8393,7 +8393,7 @@
         <v>4</v>
       </c>
       <c r="I195" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -8422,7 +8422,7 @@
         <v>4</v>
       </c>
       <c r="I196" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -8451,7 +8451,7 @@
         <v>4</v>
       </c>
       <c r="I197" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -8480,7 +8480,7 @@
         <v>4</v>
       </c>
       <c r="I198" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -8509,7 +8509,7 @@
         <v>4</v>
       </c>
       <c r="I199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -8538,7 +8538,7 @@
         <v>4</v>
       </c>
       <c r="I200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -8567,7 +8567,7 @@
         <v>4</v>
       </c>
       <c r="I201" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -8596,7 +8596,7 @@
         <v>4</v>
       </c>
       <c r="I202" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -8625,7 +8625,7 @@
         <v>4</v>
       </c>
       <c r="I203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -8654,7 +8654,7 @@
         <v>4</v>
       </c>
       <c r="I204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -8683,7 +8683,7 @@
         <v>4</v>
       </c>
       <c r="I205" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -8712,7 +8712,7 @@
         <v>4</v>
       </c>
       <c r="I206" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -8741,7 +8741,7 @@
         <v>4</v>
       </c>
       <c r="I207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -8770,7 +8770,7 @@
         <v>4</v>
       </c>
       <c r="I208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -8799,7 +8799,7 @@
         <v>4</v>
       </c>
       <c r="I209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -8828,7 +8828,7 @@
         <v>4</v>
       </c>
       <c r="I210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -8857,7 +8857,7 @@
         <v>4</v>
       </c>
       <c r="I211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -8886,7 +8886,7 @@
         <v>4</v>
       </c>
       <c r="I212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -8915,7 +8915,7 @@
         <v>4</v>
       </c>
       <c r="I213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -8944,7 +8944,7 @@
         <v>4</v>
       </c>
       <c r="I214" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -8973,7 +8973,7 @@
         <v>4</v>
       </c>
       <c r="I215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -9002,7 +9002,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -9031,7 +9031,7 @@
         <v>4</v>
       </c>
       <c r="I217" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -9060,7 +9060,7 @@
         <v>4</v>
       </c>
       <c r="I218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -9089,7 +9089,7 @@
         <v>4</v>
       </c>
       <c r="I219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -9118,7 +9118,7 @@
         <v>4</v>
       </c>
       <c r="I220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -9147,7 +9147,7 @@
         <v>4</v>
       </c>
       <c r="I221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -9176,7 +9176,7 @@
         <v>4</v>
       </c>
       <c r="I222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -9205,7 +9205,7 @@
         <v>4</v>
       </c>
       <c r="I223" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -9234,7 +9234,7 @@
         <v>4</v>
       </c>
       <c r="I224" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -9263,7 +9263,7 @@
         <v>4</v>
       </c>
       <c r="I225" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -9292,7 +9292,7 @@
         <v>4</v>
       </c>
       <c r="I226" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -9321,7 +9321,7 @@
         <v>4</v>
       </c>
       <c r="I227" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -9350,7 +9350,7 @@
         <v>4</v>
       </c>
       <c r="I228" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -9379,7 +9379,7 @@
         <v>4</v>
       </c>
       <c r="I229" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -9408,7 +9408,7 @@
         <v>4</v>
       </c>
       <c r="I230" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -9437,7 +9437,7 @@
         <v>4</v>
       </c>
       <c r="I231" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -9466,7 +9466,7 @@
         <v>4</v>
       </c>
       <c r="I232" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -9495,7 +9495,7 @@
         <v>4</v>
       </c>
       <c r="I233" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -9524,7 +9524,7 @@
         <v>4</v>
       </c>
       <c r="I234" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -9553,7 +9553,7 @@
         <v>4</v>
       </c>
       <c r="I235" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -9582,7 +9582,7 @@
         <v>4</v>
       </c>
       <c r="I236" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -9611,7 +9611,7 @@
         <v>4</v>
       </c>
       <c r="I237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -9640,7 +9640,7 @@
         <v>4</v>
       </c>
       <c r="I238" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -9669,7 +9669,7 @@
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -9698,7 +9698,7 @@
         <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -9727,7 +9727,7 @@
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -9756,7 +9756,7 @@
         <v>4</v>
       </c>
       <c r="I242" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -9785,7 +9785,7 @@
         <v>4</v>
       </c>
       <c r="I243" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -9814,7 +9814,7 @@
         <v>4</v>
       </c>
       <c r="I244" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -9843,7 +9843,7 @@
         <v>4</v>
       </c>
       <c r="I245" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -9872,7 +9872,7 @@
         <v>4</v>
       </c>
       <c r="I246" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -9901,7 +9901,7 @@
         <v>4</v>
       </c>
       <c r="I247" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -9930,7 +9930,7 @@
         <v>4</v>
       </c>
       <c r="I248" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -9959,7 +9959,7 @@
         <v>4</v>
       </c>
       <c r="I249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -9988,7 +9988,7 @@
         <v>4</v>
       </c>
       <c r="I250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -10017,7 +10017,7 @@
         <v>4</v>
       </c>
       <c r="I251" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -10046,7 +10046,7 @@
         <v>4</v>
       </c>
       <c r="I252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -10075,7 +10075,7 @@
         <v>4</v>
       </c>
       <c r="I253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -10104,7 +10104,7 @@
         <v>4</v>
       </c>
       <c r="I254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -10133,7 +10133,7 @@
         <v>4</v>
       </c>
       <c r="I255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:9">
@@ -10162,7 +10162,7 @@
         <v>4</v>
       </c>
       <c r="I256" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:9">
@@ -10191,7 +10191,7 @@
         <v>4</v>
       </c>
       <c r="I257" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:9">
@@ -10220,7 +10220,7 @@
         <v>4</v>
       </c>
       <c r="I258" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:9">
@@ -10249,7 +10249,7 @@
         <v>4</v>
       </c>
       <c r="I259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:9">
@@ -10278,7 +10278,7 @@
         <v>4</v>
       </c>
       <c r="I260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -10307,7 +10307,7 @@
         <v>4</v>
       </c>
       <c r="I261" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -10336,7 +10336,7 @@
         <v>4</v>
       </c>
       <c r="I262" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:9">
@@ -10365,7 +10365,7 @@
         <v>4</v>
       </c>
       <c r="I263" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:9">
@@ -10394,7 +10394,7 @@
         <v>4</v>
       </c>
       <c r="I264" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:9">
@@ -10423,7 +10423,7 @@
         <v>4</v>
       </c>
       <c r="I265" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:9">
@@ -10452,7 +10452,7 @@
         <v>4</v>
       </c>
       <c r="I266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:9">
@@ -10481,7 +10481,7 @@
         <v>4</v>
       </c>
       <c r="I267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:9">
@@ -10510,7 +10510,7 @@
         <v>4</v>
       </c>
       <c r="I268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -10539,7 +10539,7 @@
         <v>4</v>
       </c>
       <c r="I269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -10568,7 +10568,7 @@
         <v>4</v>
       </c>
       <c r="I270" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -10597,7 +10597,7 @@
         <v>4</v>
       </c>
       <c r="I271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -10626,7 +10626,7 @@
         <v>4</v>
       </c>
       <c r="I272" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -10655,7 +10655,7 @@
         <v>4</v>
       </c>
       <c r="I273" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -10684,7 +10684,7 @@
         <v>4</v>
       </c>
       <c r="I274" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:9">
@@ -10713,7 +10713,7 @@
         <v>4</v>
       </c>
       <c r="I275" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:9">
@@ -10742,7 +10742,7 @@
         <v>4</v>
       </c>
       <c r="I276" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:9">
@@ -10771,7 +10771,7 @@
         <v>4</v>
       </c>
       <c r="I277" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -10800,7 +10800,7 @@
         <v>4</v>
       </c>
       <c r="I278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -10829,7 +10829,7 @@
         <v>4</v>
       </c>
       <c r="I279" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -10858,7 +10858,7 @@
         <v>4</v>
       </c>
       <c r="I280" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -10887,7 +10887,7 @@
         <v>4</v>
       </c>
       <c r="I281" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -10916,7 +10916,7 @@
         <v>4</v>
       </c>
       <c r="I282" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:9">
@@ -10945,7 +10945,7 @@
         <v>4</v>
       </c>
       <c r="I283" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="284" spans="1:9">
@@ -10974,7 +10974,7 @@
         <v>4</v>
       </c>
       <c r="I284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -11003,7 +11003,7 @@
         <v>4</v>
       </c>
       <c r="I285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:9">
@@ -11032,7 +11032,7 @@
         <v>4</v>
       </c>
       <c r="I286" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="287" spans="1:9">
@@ -11061,7 +11061,7 @@
         <v>4</v>
       </c>
       <c r="I287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="288" spans="1:9">
@@ -11090,7 +11090,7 @@
         <v>4</v>
       </c>
       <c r="I288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -11119,7 +11119,7 @@
         <v>4</v>
       </c>
       <c r="I289" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:9">
@@ -11148,7 +11148,7 @@
         <v>4</v>
       </c>
       <c r="I290" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:9">
@@ -11177,7 +11177,7 @@
         <v>4</v>
       </c>
       <c r="I291" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:9">
@@ -11206,7 +11206,7 @@
         <v>4</v>
       </c>
       <c r="I292" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:9">
@@ -11235,7 +11235,7 @@
         <v>4</v>
       </c>
       <c r="I293" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:9">
@@ -11264,7 +11264,7 @@
         <v>4</v>
       </c>
       <c r="I294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:9">
@@ -11293,7 +11293,7 @@
         <v>4</v>
       </c>
       <c r="I295" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -11322,7 +11322,7 @@
         <v>4</v>
       </c>
       <c r="I296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -11351,7 +11351,7 @@
         <v>4</v>
       </c>
       <c r="I297" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -11380,7 +11380,7 @@
         <v>4</v>
       </c>
       <c r="I298" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:9">
@@ -11409,7 +11409,7 @@
         <v>4</v>
       </c>
       <c r="I299" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:9">
@@ -11438,7 +11438,7 @@
         <v>4</v>
       </c>
       <c r="I300" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:9">
@@ -11467,7 +11467,7 @@
         <v>4</v>
       </c>
       <c r="I301" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:9">
@@ -11496,7 +11496,7 @@
         <v>4</v>
       </c>
       <c r="I302" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:9">
@@ -11525,7 +11525,7 @@
         <v>4</v>
       </c>
       <c r="I303" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:9">
@@ -11554,7 +11554,7 @@
         <v>4</v>
       </c>
       <c r="I304" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:9">
@@ -11583,7 +11583,7 @@
         <v>4</v>
       </c>
       <c r="I305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -11612,7 +11612,7 @@
         <v>4</v>
       </c>
       <c r="I306" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:9">
@@ -11641,7 +11641,7 @@
         <v>4</v>
       </c>
       <c r="I307" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:9">
@@ -11670,7 +11670,7 @@
         <v>4</v>
       </c>
       <c r="I308" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:9">
@@ -11699,7 +11699,7 @@
         <v>4</v>
       </c>
       <c r="I309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:9">
@@ -11728,7 +11728,7 @@
         <v>4</v>
       </c>
       <c r="I310" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:9">
@@ -11757,7 +11757,7 @@
         <v>4</v>
       </c>
       <c r="I311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:9">
@@ -11786,7 +11786,7 @@
         <v>4</v>
       </c>
       <c r="I312" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:9">
@@ -11815,7 +11815,7 @@
         <v>4</v>
       </c>
       <c r="I313" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:9">
@@ -11844,7 +11844,7 @@
         <v>4</v>
       </c>
       <c r="I314" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:9">
@@ -11873,7 +11873,7 @@
         <v>4</v>
       </c>
       <c r="I315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:9">
@@ -11902,7 +11902,7 @@
         <v>4</v>
       </c>
       <c r="I316" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:9">
@@ -11931,7 +11931,7 @@
         <v>4</v>
       </c>
       <c r="I317" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:9">
@@ -11960,7 +11960,7 @@
         <v>4</v>
       </c>
       <c r="I318" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:9">
@@ -11989,7 +11989,7 @@
         <v>4</v>
       </c>
       <c r="I319" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:9">
@@ -12018,7 +12018,7 @@
         <v>4</v>
       </c>
       <c r="I320" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:9">
@@ -12047,7 +12047,7 @@
         <v>4</v>
       </c>
       <c r="I321" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:9">
@@ -12076,7 +12076,7 @@
         <v>4</v>
       </c>
       <c r="I322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:9">
@@ -12105,7 +12105,7 @@
         <v>4</v>
       </c>
       <c r="I323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:9">
@@ -12134,7 +12134,7 @@
         <v>4</v>
       </c>
       <c r="I324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:9">
@@ -12163,7 +12163,7 @@
         <v>4</v>
       </c>
       <c r="I325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:9">
@@ -12192,7 +12192,7 @@
         <v>4</v>
       </c>
       <c r="I326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:9">
@@ -12221,7 +12221,7 @@
         <v>4</v>
       </c>
       <c r="I327" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:9">
@@ -12250,7 +12250,7 @@
         <v>4</v>
       </c>
       <c r="I328" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:9">
@@ -12279,7 +12279,7 @@
         <v>4</v>
       </c>
       <c r="I329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:9">
@@ -12308,7 +12308,7 @@
         <v>4</v>
       </c>
       <c r="I330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -12337,7 +12337,7 @@
         <v>4</v>
       </c>
       <c r="I331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -12366,7 +12366,7 @@
         <v>4</v>
       </c>
       <c r="I332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -12395,7 +12395,7 @@
         <v>4</v>
       </c>
       <c r="I333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -12424,7 +12424,7 @@
         <v>4</v>
       </c>
       <c r="I334" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -12453,7 +12453,7 @@
         <v>4</v>
       </c>
       <c r="I335" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -12482,7 +12482,7 @@
         <v>4</v>
       </c>
       <c r="I336" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:9">
@@ -12511,7 +12511,7 @@
         <v>4</v>
       </c>
       <c r="I337" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -12540,7 +12540,7 @@
         <v>4</v>
       </c>
       <c r="I338" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -12569,7 +12569,7 @@
         <v>4</v>
       </c>
       <c r="I339" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:9">
@@ -12598,7 +12598,7 @@
         <v>4</v>
       </c>
       <c r="I340" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -12627,7 +12627,7 @@
         <v>4</v>
       </c>
       <c r="I341" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -12656,7 +12656,7 @@
         <v>4</v>
       </c>
       <c r="I342" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -12685,7 +12685,7 @@
         <v>4</v>
       </c>
       <c r="I343" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -12714,7 +12714,7 @@
         <v>4</v>
       </c>
       <c r="I344" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -12743,7 +12743,7 @@
         <v>4</v>
       </c>
       <c r="I345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -12772,7 +12772,7 @@
         <v>4</v>
       </c>
       <c r="I346" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -12801,7 +12801,7 @@
         <v>4</v>
       </c>
       <c r="I347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:9">
@@ -12830,7 +12830,7 @@
         <v>4</v>
       </c>
       <c r="I348" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -12859,7 +12859,7 @@
         <v>4</v>
       </c>
       <c r="I349" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:9">
@@ -12888,7 +12888,7 @@
         <v>4</v>
       </c>
       <c r="I350" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -12917,7 +12917,7 @@
         <v>4</v>
       </c>
       <c r="I351" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -12946,7 +12946,7 @@
         <v>4</v>
       </c>
       <c r="I352" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:9">
@@ -12975,7 +12975,7 @@
         <v>4</v>
       </c>
       <c r="I353" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -13004,7 +13004,7 @@
         <v>4</v>
       </c>
       <c r="I354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -13033,7 +13033,7 @@
         <v>4</v>
       </c>
       <c r="I355" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -13062,7 +13062,7 @@
         <v>4</v>
       </c>
       <c r="I356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:9">
@@ -13091,7 +13091,7 @@
         <v>4</v>
       </c>
       <c r="I357" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -13120,7 +13120,7 @@
         <v>4</v>
       </c>
       <c r="I358" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:9">
@@ -13149,7 +13149,7 @@
         <v>4</v>
       </c>
       <c r="I359" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -13178,7 +13178,7 @@
         <v>4</v>
       </c>
       <c r="I360" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:9">
@@ -13207,7 +13207,7 @@
         <v>4</v>
       </c>
       <c r="I361" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:9">
@@ -13236,7 +13236,7 @@
         <v>4</v>
       </c>
       <c r="I362" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:9">
@@ -13265,7 +13265,7 @@
         <v>4</v>
       </c>
       <c r="I363" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:9">
@@ -13294,7 +13294,7 @@
         <v>4</v>
       </c>
       <c r="I364" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:9">
@@ -13323,7 +13323,7 @@
         <v>4</v>
       </c>
       <c r="I365" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:9">
@@ -13352,7 +13352,7 @@
         <v>4</v>
       </c>
       <c r="I366" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:9">
@@ -13381,7 +13381,7 @@
         <v>4</v>
       </c>
       <c r="I367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:9">
@@ -13410,7 +13410,7 @@
         <v>4</v>
       </c>
       <c r="I368" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:9">
@@ -13439,7 +13439,7 @@
         <v>4</v>
       </c>
       <c r="I369" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:9">
@@ -13468,7 +13468,7 @@
         <v>4</v>
       </c>
       <c r="I370" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:9">
@@ -13497,7 +13497,7 @@
         <v>4</v>
       </c>
       <c r="I371" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:9">
@@ -13526,7 +13526,7 @@
         <v>4</v>
       </c>
       <c r="I372" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:9">
@@ -13555,7 +13555,7 @@
         <v>4</v>
       </c>
       <c r="I373" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:9">
@@ -13584,7 +13584,7 @@
         <v>4</v>
       </c>
       <c r="I374" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:9">
@@ -13613,7 +13613,7 @@
         <v>4</v>
       </c>
       <c r="I375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:9">
@@ -13642,7 +13642,7 @@
         <v>4</v>
       </c>
       <c r="I376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:9">
@@ -13671,7 +13671,7 @@
         <v>4</v>
       </c>
       <c r="I377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:9">
@@ -13700,7 +13700,7 @@
         <v>4</v>
       </c>
       <c r="I378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:9">
@@ -13729,7 +13729,7 @@
         <v>4</v>
       </c>
       <c r="I379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:9">
@@ -13758,7 +13758,7 @@
         <v>4</v>
       </c>
       <c r="I380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:9">
@@ -13787,7 +13787,7 @@
         <v>4</v>
       </c>
       <c r="I381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:9">
@@ -13816,7 +13816,7 @@
         <v>4</v>
       </c>
       <c r="I382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:9">
@@ -13845,7 +13845,7 @@
         <v>4</v>
       </c>
       <c r="I383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:9">
@@ -13874,7 +13874,7 @@
         <v>4</v>
       </c>
       <c r="I384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:9">
@@ -13903,7 +13903,7 @@
         <v>4</v>
       </c>
       <c r="I385" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:9">
@@ -13932,7 +13932,7 @@
         <v>4</v>
       </c>
       <c r="I386" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:9">
@@ -13961,7 +13961,7 @@
         <v>4</v>
       </c>
       <c r="I387" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:9">
@@ -13990,7 +13990,7 @@
         <v>4</v>
       </c>
       <c r="I388" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:9">
@@ -14019,7 +14019,7 @@
         <v>4</v>
       </c>
       <c r="I389" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:9">
@@ -14048,7 +14048,7 @@
         <v>4</v>
       </c>
       <c r="I390" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:9">
@@ -14077,7 +14077,7 @@
         <v>4</v>
       </c>
       <c r="I391" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:9">
@@ -14106,7 +14106,7 @@
         <v>4</v>
       </c>
       <c r="I392" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:9">
@@ -14135,7 +14135,7 @@
         <v>4</v>
       </c>
       <c r="I393" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:9">
@@ -14164,7 +14164,7 @@
         <v>4</v>
       </c>
       <c r="I394" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -14193,7 +14193,7 @@
         <v>4</v>
       </c>
       <c r="I395" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:9">
@@ -14222,7 +14222,7 @@
         <v>4</v>
       </c>
       <c r="I396" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:9">
@@ -14251,7 +14251,7 @@
         <v>4</v>
       </c>
       <c r="I397" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:9">
@@ -14280,7 +14280,7 @@
         <v>4</v>
       </c>
       <c r="I398" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:9">
@@ -14309,7 +14309,7 @@
         <v>4</v>
       </c>
       <c r="I399" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:9">
@@ -14338,7 +14338,7 @@
         <v>4</v>
       </c>
       <c r="I400" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:9">
@@ -14367,7 +14367,7 @@
         <v>4</v>
       </c>
       <c r="I401" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:9">
@@ -14396,7 +14396,7 @@
         <v>4</v>
       </c>
       <c r="I402" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:9">
@@ -14425,7 +14425,7 @@
         <v>4</v>
       </c>
       <c r="I403" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:9">
@@ -14454,7 +14454,7 @@
         <v>4</v>
       </c>
       <c r="I404" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:9">
@@ -14483,7 +14483,7 @@
         <v>4</v>
       </c>
       <c r="I405" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:9">
@@ -14512,7 +14512,7 @@
         <v>4</v>
       </c>
       <c r="I406" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:9">
@@ -14541,7 +14541,7 @@
         <v>4</v>
       </c>
       <c r="I407" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:9">
@@ -14570,7 +14570,7 @@
         <v>4</v>
       </c>
       <c r="I408" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:9">
@@ -14599,7 +14599,7 @@
         <v>4</v>
       </c>
       <c r="I409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:9">
@@ -14628,7 +14628,7 @@
         <v>4</v>
       </c>
       <c r="I410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:9">
@@ -14657,7 +14657,7 @@
         <v>4</v>
       </c>
       <c r="I411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:9">
@@ -14686,7 +14686,7 @@
         <v>4</v>
       </c>
       <c r="I412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:9">
@@ -14715,7 +14715,7 @@
         <v>4</v>
       </c>
       <c r="I413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:9">
@@ -14744,7 +14744,7 @@
         <v>4</v>
       </c>
       <c r="I414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:9">
@@ -14773,7 +14773,7 @@
         <v>4</v>
       </c>
       <c r="I415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:9">
@@ -14802,7 +14802,7 @@
         <v>4</v>
       </c>
       <c r="I416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:9">
@@ -14831,7 +14831,7 @@
         <v>4</v>
       </c>
       <c r="I417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:9">
@@ -14860,7 +14860,7 @@
         <v>4</v>
       </c>
       <c r="I418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:9">
@@ -14889,7 +14889,7 @@
         <v>4</v>
       </c>
       <c r="I419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:9">
@@ -14918,7 +14918,7 @@
         <v>4</v>
       </c>
       <c r="I420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:9">
@@ -14947,7 +14947,7 @@
         <v>4</v>
       </c>
       <c r="I421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:9">
@@ -14976,7 +14976,7 @@
         <v>4</v>
       </c>
       <c r="I422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:9">
@@ -15005,7 +15005,7 @@
         <v>4</v>
       </c>
       <c r="I423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:9">
@@ -15034,7 +15034,7 @@
         <v>4</v>
       </c>
       <c r="I424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:9">
@@ -15063,7 +15063,7 @@
         <v>4</v>
       </c>
       <c r="I425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:9">
@@ -15092,7 +15092,7 @@
         <v>4</v>
       </c>
       <c r="I426" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:9">
@@ -15121,7 +15121,7 @@
         <v>4</v>
       </c>
       <c r="I427" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:9">
@@ -15150,7 +15150,7 @@
         <v>4</v>
       </c>
       <c r="I428" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:9">
@@ -15179,7 +15179,7 @@
         <v>4</v>
       </c>
       <c r="I429" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:9">
@@ -15208,7 +15208,7 @@
         <v>4</v>
       </c>
       <c r="I430" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:9">
@@ -15237,7 +15237,7 @@
         <v>4</v>
       </c>
       <c r="I431" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:9">
@@ -15266,7 +15266,7 @@
         <v>4</v>
       </c>
       <c r="I432" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:9">
@@ -15295,7 +15295,7 @@
         <v>4</v>
       </c>
       <c r="I433" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:9">
@@ -15324,7 +15324,7 @@
         <v>4</v>
       </c>
       <c r="I434" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:9">
@@ -15353,7 +15353,7 @@
         <v>4</v>
       </c>
       <c r="I435" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:9">
@@ -15382,7 +15382,7 @@
         <v>4</v>
       </c>
       <c r="I436" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:9">
@@ -15411,7 +15411,7 @@
         <v>4</v>
       </c>
       <c r="I437" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
